--- a/Analyzer Results/RESULTS_TT_MERGED_DATE_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -514,14 +529,21 @@
         <v>0.3870967741935484</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="J2" t="n">
         <v>0.4838709677419355</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.8494623655913979</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -552,13 +574,22 @@
         <v>0.1612903225806452</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="I3" t="n">
+        <v>0.2043010752688172</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.870967741935484</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.4086021505376344</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +621,22 @@
         <v>0.2903225806451613</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4946236559139784</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="I4" t="n">
+        <v>0.2473118279569893</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4623655913978495</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.7849462365591399</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.5591397849462366</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="5">
@@ -628,13 +668,22 @@
         <v>0.1935483870967742</v>
       </c>
       <c r="H5" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.8602150537634408</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.3763440860215038</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="6">
@@ -666,13 +715,22 @@
         <v>0.2795698924731183</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="I6" t="n">
+        <v>0.4086021505376344</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4946236559139786</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.9892473118279556</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.7311827956989247</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="7">
@@ -704,14 +762,23 @@
         <v>0.01075268817204301</v>
       </c>
       <c r="H7" t="n">
+        <v>0.01075268817204301</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1612903225806452</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
+      <c r="K7" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1022727272727273</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -745,10 +812,19 @@
         <v>0.05376344086021506</v>
       </c>
       <c r="I8" t="n">
+        <v>0.05376344086021506</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.05376344086021506</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.8817204301075255</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.1505376344086022</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +856,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.01075268817204301</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
+        <v>0.01075268817204301</v>
+      </c>
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>0.04301075268817205</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="10">
@@ -818,13 +903,22 @@
         <v>0.08064516129032259</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1075268817204299</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="I10" t="n">
+        <v>0.09677419354838711</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.08602150537634409</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.6344086021505377</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.2150537634408602</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9659090909090909</v>
       </c>
     </row>
     <row r="11">
@@ -856,13 +950,22 @@
         <v>0.1720430107526882</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="I11" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1720430107526882</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.5806451612903226</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.3118279569892473</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9090909090909092</v>
       </c>
     </row>
     <row r="12">
@@ -894,13 +997,22 @@
         <v>0.2258064516129032</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="I12" t="n">
+        <v>0.1720430107526882</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3440860215053764</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.89247311827957</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>0.6236559139784946</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3068181818181818</v>
       </c>
     </row>
     <row r="13">
@@ -932,13 +1044,22 @@
         <v>0.1290322580645161</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2473118279569893</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="I13" t="n">
+        <v>0.1397849462365592</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.2473118279569889</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.913978494623656</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>0.4301075268817189</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1477272727272727</v>
       </c>
     </row>
     <row r="14">
@@ -973,10 +1094,19 @@
         <v>0.04301075268817205</v>
       </c>
       <c r="I14" t="n">
+        <v>0.04301075268817205</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.04301075268817205</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.8172043010752689</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>0.08602150537634409</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1138,22 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="I15" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.967741935483871</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>0.2043010752688172</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="16">
@@ -1046,14 +1185,21 @@
         <v>0.3655913978494624</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4301075268817205</v>
+        <v>0.3763440860215045</v>
       </c>
       <c r="I16" t="n">
+        <v>0.3978494623655914</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.6451612903225805</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>0.6129032258064516</v>
       </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1084,13 +1230,22 @@
         <v>0.1182795698924731</v>
       </c>
       <c r="H17" t="n">
+        <v>0.1075268817204301</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1182795698924731</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1182795698924731</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4623655913978495</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.1290322580645161</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.4623655913978495</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.1290322580645161</v>
+      <c r="M17" t="n">
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1277,22 @@
         <v>0.3118279569892473</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.3225806451612904</v>
       </c>
       <c r="I18" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3978494623655914</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.5591397849462365</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>0.4516129032258065</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="19">
@@ -1160,13 +1324,22 @@
         <v>0.1451612903225807</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="I19" t="n">
+        <v>0.1075268817204301</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1505376344086022</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.5698924731182795</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>0.3333333333333334</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1704545454545455</v>
       </c>
     </row>
     <row r="20">
@@ -1198,13 +1371,22 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="I20" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3118279569892473</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.4193548387096774</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>0.3978494623655914</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1236,13 +1418,22 @@
         <v>0.5053763440860215</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6451612903225807</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="I21" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6236559139784946</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.7419354838709677</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>0.7204301075268817</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4318181818181818</v>
       </c>
     </row>
     <row r="22">
@@ -1274,13 +1465,22 @@
         <v>0.08064516129032259</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="I22" t="n">
+        <v>0.07526881720430108</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.07526881720430108</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>0.1182795698924731</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3295454545454545</v>
       </c>
     </row>
     <row r="23">
@@ -1312,13 +1512,22 @@
         <v>0.3494623655913979</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1182795698924731</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="I23" t="n">
+        <v>0.3225806451612904</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.1720430107526882</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>0.01075268817204301</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="24">
@@ -1350,13 +1559,22 @@
         <v>0.3763440860215054</v>
       </c>
       <c r="H24" t="n">
-        <v>0.446236559139785</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="I24" t="n">
+        <v>0.4301075268817203</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4301075268817205</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.6989247311827957</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>0.6021505376344086</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7613636363636364</v>
       </c>
     </row>
     <row r="25">
@@ -1388,14 +1606,23 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="J25" t="n">
         <v>0.7096774193548387</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1426,13 +1653,22 @@
         <v>0.1075268817204301</v>
       </c>
       <c r="H26" t="n">
+        <v>0.1182795698924731</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1505376344086022</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.2365591397849462</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>0.956989247311828</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>0.4193548387096774</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8068181818181819</v>
       </c>
     </row>
     <row r="27">
@@ -1464,13 +1700,22 @@
         <v>0.3225806451612904</v>
       </c>
       <c r="H27" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.3870967741935484</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>0.6774193548387096</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>0.5053763440860215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1747,22 @@
         <v>0.2580645161290323</v>
       </c>
       <c r="H28" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.2688172043010753</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>0.5376344086021506</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>0.3225806451612904</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4772727272727273</v>
       </c>
     </row>
     <row r="29">
@@ -1540,13 +1794,22 @@
         <v>0.3010752688172043</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="I29" t="n">
+        <v>0.3118279569892473</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.4408602150537635</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.9032258064516122</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>0.5913978494623656</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.375</v>
       </c>
     </row>
     <row r="30">
@@ -1578,13 +1841,22 @@
         <v>0.09677419354838711</v>
       </c>
       <c r="H30" t="n">
+        <v>0.09677419354838711</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.08602150537634409</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.09677419354838711</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1827956989247312</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.07526881720430108</v>
       </c>
-      <c r="I30" t="n">
-        <v>0.1827956989247312</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.07526881720430108</v>
+      <c r="M30" t="n">
+        <v>0.7954545454545455</v>
       </c>
     </row>
     <row r="31">
@@ -1616,13 +1888,22 @@
         <v>0.1827956989247312</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="I31" t="n">
+        <v>0.1827956989247312</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.7526881720430109</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.3655913978494624</v>
+      <c r="L31" t="n">
+        <v>0.3655913978494624</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9772727272727273</v>
       </c>
     </row>
     <row r="32">
@@ -1654,14 +1935,21 @@
         <v>0.3494623655913979</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="I32" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4086021505376344</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.9354838709677418</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.4946236559139786</v>
       </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1692,13 +1980,22 @@
         <v>0.8064516129032259</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9354838709677413</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="I33" t="n">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.881720430107527</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.9784946236559122</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.989247311827957</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.03409090909090909</v>
       </c>
     </row>
     <row r="34">
@@ -1730,13 +2027,22 @@
         <v>0.6881720430107527</v>
       </c>
       <c r="H34" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.7634408602150538</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>0.7204301075268817</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.8172043010752689</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1931818181818182</v>
       </c>
     </row>
     <row r="35">
@@ -1768,13 +2074,22 @@
         <v>0.935483870967742</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9892473118279567</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="I35" t="n">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9784946236559141</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.7741935483870969</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="36">
@@ -1806,13 +2121,22 @@
         <v>0.946236559139785</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8602150537634409</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="I36" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8494623655913979</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.2258064516129032</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>0.8279569892473119</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1590909090909091</v>
       </c>
     </row>
     <row r="37">
@@ -1844,13 +2168,22 @@
         <v>0.9623655913978495</v>
       </c>
       <c r="H37" t="n">
+        <v>0.956989247311828</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9354838709677411</v>
+      </c>
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>0.7096774193548387</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>0.967741935483871</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.05681818181818182</v>
       </c>
     </row>
     <row r="38">
@@ -1882,14 +2215,23 @@
         <v>0.924731182795699</v>
       </c>
       <c r="H38" t="n">
+        <v>0.924731182795699</v>
+      </c>
+      <c r="I38" t="n">
         <v>0.956989247311828</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.2150537634408602</v>
       </c>
       <c r="J38" t="n">
         <v>0.946236559139785</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.2150537634408602</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.06818181818181818</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1920,13 +2262,22 @@
         <v>0.989247311827957</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="I39" t="n">
+        <v>0.9892473118279567</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8709677419354803</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.02150537634408602</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.5268817204301076</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="40">
@@ -1958,13 +2309,22 @@
         <v>0.7956989247311829</v>
       </c>
       <c r="H40" t="n">
+        <v>0.7956989247311829</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7849462365591376</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.8172043010752689</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>0.7311827956989247</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.924731182795699</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="41">
@@ -1996,13 +2356,22 @@
         <v>0.1451612903225807</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="I41" t="n">
+        <v>0.2258064516129028</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2903225806451588</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.946236559139785</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.5483870967741936</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.4659090909090909</v>
       </c>
     </row>
     <row r="42">
@@ -2034,13 +2403,22 @@
         <v>0.6989247311827957</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6774193548387094</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="I42" t="n">
+        <v>0.6774193548387097</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6559139784946237</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.6021505376344086</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.6774193548387097</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8863636363636364</v>
       </c>
     </row>
     <row r="43">
@@ -2072,13 +2450,22 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9086021505376345</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.913978494623656</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.06451612903225806</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.8064516129032259</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6818181818181817</v>
       </c>
     </row>
     <row r="44">
@@ -2110,13 +2497,22 @@
         <v>0.89247311827957</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9784946236559136</v>
+        <v>0.913978494623656</v>
       </c>
       <c r="I44" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.956989247311828</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.8064516129032259</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.9784946236559139</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4886363636363636</v>
       </c>
     </row>
     <row r="45">
@@ -2148,13 +2544,22 @@
         <v>0.860215053763441</v>
       </c>
       <c r="H45" t="n">
-        <v>0.924731182795699</v>
+        <v>0.870967741935484</v>
       </c>
       <c r="I45" t="n">
+        <v>0.8279569892473119</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9032258064516121</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.8387096774193549</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.956989247311828</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5681818181818162</v>
       </c>
     </row>
     <row r="46">
@@ -2189,10 +2594,19 @@
         <v>0.7849462365591395</v>
       </c>
       <c r="I46" t="n">
+        <v>0.7419354838709696</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.7741935483870969</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.6881720430107527</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.89247311827957</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.4431818181818182</v>
       </c>
     </row>
     <row r="47">
@@ -2224,14 +2638,23 @@
         <v>0.8709677419354791</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8817204301075235</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.8709677419354837</v>
       </c>
       <c r="J47" t="n">
         <v>0.8387096774193549</v>
       </c>
+      <c r="K47" t="n">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.3409090909090909</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2262,13 +2685,22 @@
         <v>0.9032258064516093</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9086021505376345</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="I48" t="n">
+        <v>0.913978494623656</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.924731182795699</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.3440860215053764</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.881720430107527</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.4204545454545455</v>
       </c>
     </row>
     <row r="49">
@@ -2303,10 +2735,19 @@
         <v>0.967741935483871</v>
       </c>
       <c r="I49" t="n">
+        <v>0.924731182795699</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9892473118279485</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.1290322580645161</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.7741935483870969</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="50">
@@ -2338,13 +2779,22 @@
         <v>0.881720430107527</v>
       </c>
       <c r="H50" t="n">
-        <v>0.881720430107527</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="I50" t="n">
+        <v>0.8817204301075263</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.89247311827957</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.3010752688172043</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.870967741935484</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="51">
@@ -2376,13 +2826,22 @@
         <v>0.978494623655914</v>
       </c>
       <c r="H51" t="n">
-        <v>0.89247311827957</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="I51" t="n">
+        <v>0.9784946236559141</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.9354838709677383</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.1182795698924731</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.7849462365591359</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="52">
@@ -2414,13 +2873,22 @@
         <v>0.7419354838709686</v>
       </c>
       <c r="H52" t="n">
+        <v>0.7419354838709683</v>
+      </c>
+      <c r="I52" t="n">
         <v>0.7204301075268817</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
+        <v>0.7204301075268817</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.2688172043010753</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.6451612903225807</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="53">
@@ -2452,14 +2920,23 @@
         <v>0.5698924731182791</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.5483870967741934</v>
       </c>
       <c r="J53" t="n">
         <v>0.6344086021505377</v>
       </c>
+      <c r="K53" t="n">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.6344086021505377</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7329545454545454</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2490,13 +2967,22 @@
         <v>0.913978494623656</v>
       </c>
       <c r="H54" t="n">
-        <v>0.946236559139785</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="I54" t="n">
+        <v>0.89247311827957</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="K54" t="n">
         <v>0.548387096774193</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>0.9354838709677419</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
@@ -2528,13 +3014,22 @@
         <v>0.8494623655913979</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="I55" t="n">
+        <v>0.8064516129032259</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.8279569892473119</v>
+      </c>
+      <c r="K55" t="n">
         <v>0.3978494623655914</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.8602150537634408</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5227272727272727</v>
       </c>
     </row>
     <row r="56">
@@ -2566,13 +3061,22 @@
         <v>0.8279569892473119</v>
       </c>
       <c r="H56" t="n">
+        <v>0.8279569892473119</v>
+      </c>
+      <c r="I56" t="n">
         <v>0.7956989247311829</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
+        <v>0.8064516129032259</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.3333333333333331</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.7956989247311829</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="57">
@@ -2604,13 +3108,22 @@
         <v>0.7741935483870969</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7419354838709694</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="I57" t="n">
+        <v>0.8172043010752689</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.7419354838709681</v>
+      </c>
+      <c r="K57" t="n">
         <v>0.6129032258064516</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.7526881720430108</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.7329545454545454</v>
       </c>
     </row>
     <row r="58">
@@ -2642,13 +3155,22 @@
         <v>0.8387096774193549</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8709677419354828</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I58" t="n">
+        <v>0.860215053763441</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.860215053763441</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.7634408602150501</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.913978494623656</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="59">
@@ -2680,13 +3202,22 @@
         <v>0.8172043010752689</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="I59" t="n">
+        <v>0.8494623655913979</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.7956989247311829</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.3548387096774194</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.8494623655913979</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5340909090909091</v>
       </c>
     </row>
     <row r="60">
@@ -2718,13 +3249,22 @@
         <v>0.4838709677419355</v>
       </c>
       <c r="H60" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.4516129032258065</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.6021505376344086</v>
       </c>
-      <c r="I60" t="n">
+      <c r="K60" t="n">
         <v>0.4731182795698925</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.5376344086021504</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6022727272727273</v>
       </c>
     </row>
     <row r="61">
@@ -2756,13 +3296,22 @@
         <v>0.7634408602150533</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7526881720430024</v>
+        <v>0.7634408602150533</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7526881720430072</v>
       </c>
       <c r="J61" t="n">
+        <v>0.75268817204301</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3655913978494624</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.7634408602150539</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.8522727272727273</v>
       </c>
     </row>
     <row r="62">
@@ -2794,14 +3343,21 @@
         <v>0.6021505376344086</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="I62" t="n">
+        <v>0.6451612903225799</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.3655913978494624</v>
+      </c>
+      <c r="K62" t="n">
         <v>0.04301075268817205</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.2795698924731183</v>
       </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2832,13 +3388,22 @@
         <v>0.5376344086021506</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5483870967741936</v>
       </c>
       <c r="I63" t="n">
+        <v>0.6236559139784946</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5913978494623656</v>
+      </c>
+      <c r="K63" t="n">
         <v>0.1935483870967742</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.3870967741935484</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.125</v>
       </c>
     </row>
     <row r="64">
@@ -2870,13 +3435,22 @@
         <v>0.6451612903225806</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5376344086021503</v>
+        <v>0.6559139784946237</v>
       </c>
       <c r="I64" t="n">
+        <v>0.5698924731182796</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5698924731182794</v>
+      </c>
+      <c r="K64" t="n">
         <v>0.1505376344086022</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>0.3010752688172043</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.5795454545454546</v>
       </c>
     </row>
     <row r="65">
@@ -2908,13 +3482,22 @@
         <v>0.2419354838709677</v>
       </c>
       <c r="H65" t="n">
-        <v>0.09677419354838711</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="I65" t="n">
+        <v>0.2795698924731183</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.1075268817204301</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.5268817204301076</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>0.02150537634408602</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5568181818181819</v>
       </c>
     </row>
     <row r="66">
@@ -2946,13 +3529,22 @@
         <v>0.7204301075268817</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="I66" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="K66" t="n">
         <v>0.08602150537634409</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.1720430107526882</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.07954545454545454</v>
       </c>
     </row>
     <row r="67">
@@ -2984,13 +3576,22 @@
         <v>0.7526881720430105</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5268817204301076</v>
+        <v>0.7526881720430106</v>
       </c>
       <c r="I67" t="n">
+        <v>0.7311827956989247</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5483870967741936</v>
+      </c>
+      <c r="K67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.09677419354838711</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="68">
@@ -3022,13 +3623,22 @@
         <v>0.5161290322580645</v>
       </c>
       <c r="H68" t="n">
-        <v>0.446236559139785</v>
+        <v>0.5268817204301073</v>
       </c>
       <c r="I68" t="n">
+        <v>0.5591397849462366</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="K68" t="n">
         <v>0.1075268817204301</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.2903225806451613</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="69">
@@ -3060,13 +3670,22 @@
         <v>0.4946236559139783</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.4946236559139784</v>
       </c>
       <c r="I69" t="n">
+        <v>0.4408602150537635</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.3763440860215054</v>
+      </c>
+      <c r="K69" t="n">
         <v>0.2473118279569893</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.2688172043010753</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.4545454545454546</v>
       </c>
     </row>
     <row r="70">
@@ -3098,13 +3717,22 @@
         <v>0.7096774193548387</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="I70" t="n">
+        <v>0.7741935483870969</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="K70" t="n">
         <v>0.01075268817204301</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>0.2580645161290323</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.693181818181818</v>
       </c>
     </row>
     <row r="71">
@@ -3136,13 +3764,22 @@
         <v>0.5913978494623656</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6344086021505377</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="I71" t="n">
+        <v>0.6881720430107527</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.6451612903225807</v>
+      </c>
+      <c r="K71" t="n">
         <v>0.2580645161290323</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.3548387096774194</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.6477272727272727</v>
       </c>
     </row>
     <row r="72">
@@ -3174,13 +3811,22 @@
         <v>0.2419354838709677</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.2473118279569892</v>
       </c>
       <c r="I72" t="n">
+        <v>0.2365591397849462</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="K72" t="n">
         <v>0.2903225806451613</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.2258064516129032</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="73">
@@ -3212,13 +3858,22 @@
         <v>0.5376344086021506</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="I73" t="n">
+        <v>0.6021505376344086</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5268817204301076</v>
+      </c>
+      <c r="K73" t="n">
         <v>0.07526881720430108</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.2473118279569893</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="74">
@@ -3250,13 +3905,22 @@
         <v>0.5376344086021506</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2795698924731181</v>
+        <v>0.5376344086021506</v>
       </c>
       <c r="I74" t="n">
+        <v>0.5376344086021505</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.2795698924731183</v>
+      </c>
+      <c r="K74" t="n">
         <v>0.03225806451612903</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.1612903225806452</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6647727272727273</v>
       </c>
     </row>
     <row r="75">
@@ -3288,13 +3952,22 @@
         <v>0.5806451612903226</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3225806451612904</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="I75" t="n">
+        <v>0.5913978494623656</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="K75" t="n">
         <v>0.09677419354838711</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.1397849462365592</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.5113636363636364</v>
       </c>
     </row>
     <row r="76">
@@ -3326,13 +3999,22 @@
         <v>0.4032258064516129</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="I76" t="n">
+        <v>0.3763440860215054</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.3010752688172043</v>
+      </c>
+      <c r="K76" t="n">
         <v>0.2365591397849462</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.3440860215053764</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.2386363636363636</v>
       </c>
     </row>
     <row r="77">
@@ -3364,13 +4046,22 @@
         <v>0.4623655913978495</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.4623655913978495</v>
       </c>
       <c r="I77" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2043010752688172</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.05376344086021506</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.06451612903225806</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7159090909090909</v>
       </c>
     </row>
     <row r="78">
@@ -3402,13 +4093,22 @@
         <v>0.4301075268817203</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.4301075268817203</v>
       </c>
       <c r="I78" t="n">
+        <v>0.3655913978494624</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.2150537634408602</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.1397849462365592</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.1075268817204301</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.9886363636363636</v>
       </c>
     </row>
     <row r="79">
@@ -3440,14 +4140,21 @@
         <v>0.2688172043010753</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="I79" t="n">
+        <v>0.2688172043010753</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.3279569892473119</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.924731182795699</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.4731182795698925</v>
       </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3478,13 +4185,22 @@
         <v>0.4408602150537635</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5483870967741936</v>
+        <v>0.4408602150537635</v>
       </c>
       <c r="I80" t="n">
+        <v>0.4731182795698925</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5591397849462366</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.8279569892473119</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.5161290322580645</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.2613636363636364</v>
       </c>
     </row>
     <row r="81">
@@ -3516,13 +4232,22 @@
         <v>0.6129032258064516</v>
       </c>
       <c r="H81" t="n">
+        <v>0.6236559139784946</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.6881720430107527</v>
       </c>
-      <c r="I81" t="n">
+      <c r="K81" t="n">
         <v>0.3225806451612904</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.6989247311827957</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="82">
@@ -3554,13 +4279,22 @@
         <v>0.4032258064516129</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="I82" t="n">
+        <v>0.3440860215053764</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4516129032258065</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.6236559139784946</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.4408602150537634</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.2159090909090909</v>
       </c>
     </row>
     <row r="83">
@@ -3592,13 +4326,22 @@
         <v>0.6774193548387097</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="I83" t="n">
+        <v>0.5806451612903222</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.7849462365591391</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.7956989247311829</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.9032258064516107</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="84">
@@ -3630,13 +4373,22 @@
         <v>0.4193548387096774</v>
       </c>
       <c r="H84" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="I84" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3279569892473119</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.2043010752688172</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.2365591397849462</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.3977272727272728</v>
       </c>
     </row>
     <row r="85">
@@ -3668,13 +4420,22 @@
         <v>0.6290322580645162</v>
       </c>
       <c r="H85" t="n">
+        <v>0.6451612903225807</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.6559139784946237</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
+        <v>0.6774193548387094</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.3118279569892473</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.5806451612903226</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.2954545454545455</v>
       </c>
     </row>
     <row r="86">
@@ -3706,13 +4467,22 @@
         <v>0.4731182795698925</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5591397849462328</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="I86" t="n">
+        <v>0.4623655913978495</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5376344086021506</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.5913978494623656</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.5698924731182794</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.7840909090909091</v>
       </c>
     </row>
     <row r="87">
@@ -3744,13 +4514,22 @@
         <v>0.6559139784946237</v>
       </c>
       <c r="H87" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.6989247311827957</v>
       </c>
-      <c r="I87" t="n">
+      <c r="K87" t="n">
         <v>0.4408602150537632</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.6881720430107527</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8295454545454546</v>
       </c>
     </row>
     <row r="88">
@@ -3782,13 +4561,22 @@
         <v>0.7311827956989247</v>
       </c>
       <c r="H88" t="n">
+        <v>0.5913978494623656</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.7634408602150536</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.7311827956989247</v>
       </c>
-      <c r="I88" t="n">
+      <c r="K88" t="n">
         <v>0.5161290322580645</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.7419354838709679</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.6136363636363636</v>
       </c>
     </row>
     <row r="89">
@@ -3823,10 +4611,19 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="I89" t="n">
+        <v>0.02150537634408602</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.6559139784946237</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.05376344086021506</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8977272727272727</v>
       </c>
     </row>
     <row r="90">
@@ -3858,14 +4655,23 @@
         <v>0.6290322580645162</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6344086021505377</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.6344086021505377</v>
       </c>
       <c r="J90" t="n">
         <v>0.6666666666666665</v>
       </c>
+      <c r="K90" t="n">
+        <v>0.3763440860215054</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.6666666666666665</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.3522727272727273</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3896,13 +4702,22 @@
         <v>0.4408602150537635</v>
       </c>
       <c r="H91" t="n">
+        <v>0.4516129032258059</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.4946236559139784</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.4731182795698925</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="L91" t="n">
         <v>0.4623655913978495</v>
       </c>
-      <c r="I91" t="n">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.4623655913978495</v>
+      <c r="M91" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="92">
@@ -3934,13 +4749,22 @@
         <v>0.5591397849462366</v>
       </c>
       <c r="H92" t="n">
+        <v>0.5591397849462366</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.5268817204301076</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.6129032258064516</v>
       </c>
-      <c r="I92" t="n">
+      <c r="K92" t="n">
         <v>0.4301075268817205</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>0.6559139784946237</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.6647727272727273</v>
       </c>
     </row>
     <row r="93">
@@ -3972,14 +4796,23 @@
         <v>0.2043010752688172</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4946236559139783</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="J93" t="n">
         <v>0.1827956989247312</v>
       </c>
+      <c r="K93" t="n">
+        <v>0.4946236559139783</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.1827956989247312</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.9204545454545455</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4010,13 +4843,22 @@
         <v>0.2150537634408602</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1397849462365591</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="I94" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.1397849462365592</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.2795698924731182</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.1935483870967742</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="95">
@@ -4051,10 +4893,19 @@
         <v>0.02150537634408602</v>
       </c>
       <c r="I95" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02150537634408602</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.4086021505376344</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>0.03225806451612903</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_DATE_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,31 +517,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9623655913978495</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.2355769230769231</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="M2" t="inlineStr"/>
     </row>
@@ -562,34 +562,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.903225806451613</v>
+        <v>0.8557692307692308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7903225806451614</v>
+        <v>0.6394230769230769</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.2115384615384616</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="K3" t="n">
-        <v>0.870967741935484</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1326530612244898</v>
       </c>
     </row>
     <row r="4">
@@ -609,34 +609,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6774193548387097</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.913978494623656</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.89247311827957</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.2115384615384616</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.2211538461538462</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2473118279569893</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4623655913978495</v>
+        <v>0.2692307692307693</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7849462365591399</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5591397849462366</v>
+        <v>0.4134615384615385</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="5">
@@ -656,34 +656,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8602150537634408</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3763440860215038</v>
+        <v>0.3942307692307693</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01136363636363636</v>
+        <v>0.01020408163265306</v>
       </c>
     </row>
     <row r="6">
@@ -699,38 +699,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.903225806451613</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.09134615384615385</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.09615384615384592</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4946236559139786</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9892473118279556</v>
+        <v>0.6826923076923077</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.0510204081632653</v>
       </c>
     </row>
     <row r="7">
@@ -746,38 +746,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.903225806451613</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02688172043010753</v>
+        <v>0.6394230769230769</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1022727272727273</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="8">
@@ -793,38 +793,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.903225806451613</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05376344086021506</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05376344086021506</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05376344086021506</v>
+        <v>0.06730769230769232</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05376344086021506</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8817204301075255</v>
+        <v>0.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="9">
@@ -840,38 +840,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9086021505376345</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.06730769230769232</v>
       </c>
       <c r="M9" t="n">
-        <v>0.875</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10">
@@ -887,38 +887,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08064516129032259</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07526881720430108</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09677419354838711</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6344086021505377</v>
+        <v>0.9807692307692308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9659090909090909</v>
+        <v>0.9489795918367346</v>
       </c>
     </row>
     <row r="11">
@@ -934,38 +934,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7903225806451614</v>
+        <v>0.6875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.8028846153846154</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5806451612903226</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.846938775510204</v>
       </c>
     </row>
     <row r="12">
@@ -981,38 +981,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.903225806451613</v>
+        <v>0.8701923076923077</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.6875</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2365591397849462</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.06730769230769225</v>
       </c>
       <c r="K12" t="n">
-        <v>0.89247311827957</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3068181818181818</v>
+        <v>0.9591836734693877</v>
       </c>
     </row>
     <row r="13">
@@ -1028,38 +1028,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.903225806451613</v>
+        <v>0.8701923076923077</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2473118279569893</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.06730769230769232</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.06730769230769232</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1397849462365592</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2473118279569889</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K13" t="n">
-        <v>0.913978494623656</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4301075268817189</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1477272727272727</v>
+        <v>0.8877551020408162</v>
       </c>
     </row>
     <row r="14">
@@ -1075,38 +1075,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.903225806451613</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.2211538461538462</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9375</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="15">
@@ -1122,44 +1122,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.6634615384615385</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2365591397849462</v>
+        <v>0.25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.125</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.125</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="K15" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9423076923076924</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9375</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1169,42 +1169,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3763440860215045</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6451612903225805</v>
+        <v>0.7884615384615382</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6129032258064516</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9285714285714285</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1214,44 +1216,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.05376344086021506</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.8461538461538448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7849462365591399</v>
+        <v>0.4134615384615385</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1182795698924731</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1075268817204301</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1182795698924731</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1182795698924731</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4623655913978495</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.8979591836734693</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1261,38 +1263,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.8774038461538461</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.2259615384615385</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3225806451612904</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5591397849462365</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.9285714285714285</v>
       </c>
     </row>
     <row r="19">
@@ -1308,39 +1310,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1559139784946237</v>
+        <v>0.6394230769230769</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.4134615384615385</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1075268817204301</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5698924731182795</v>
+        <v>0.6346153846153842</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.1704545454545455</v>
-      </c>
+        <v>0.6730769230769231</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1355,38 +1355,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.6394230769230769</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.8028846153846154</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.1938775510204082</v>
       </c>
     </row>
     <row r="21">
@@ -1402,38 +1402,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.451923076923077</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.317307692307692</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.317307692307692</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.1122448979591837</v>
       </c>
     </row>
     <row r="22">
@@ -1449,38 +1449,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.1490384615384616</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08064516129032259</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="H22" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07526881720430108</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07526881720430108</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1182795698924731</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3295454545454545</v>
+        <v>0.163265306122449</v>
       </c>
     </row>
     <row r="23">
@@ -1496,38 +1496,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7903225806451614</v>
+        <v>0.875</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7849462365591399</v>
+        <v>0.8605769230769231</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3494623655913979</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3225806451612904</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1543,38 +1543,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4301075268817203</v>
+        <v>0.5096153846153847</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4301075268817205</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.7884615384615379</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7613636363636364</v>
+        <v>0.8673469387755084</v>
       </c>
     </row>
     <row r="25">
@@ -1590,38 +1590,38 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6774193548387097</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.125</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.701923076923077</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.4081632653061233</v>
       </c>
     </row>
     <row r="26">
@@ -1637,38 +1637,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.5961538461538463</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.8317307692307693</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1075268817204301</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1182795698924731</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.2884615384615385</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2365591397849462</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="K26" t="n">
-        <v>0.956989247311828</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8068181818181819</v>
+        <v>0.3061224489795918</v>
       </c>
     </row>
     <row r="27">
@@ -1684,38 +1684,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7365591397849462</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.7548076923076923</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3225806451612904</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5053763440860215</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.336734693877551</v>
       </c>
     </row>
     <row r="28">
@@ -1731,38 +1731,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7903225806451614</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7849462365591399</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5376344086021506</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3225806451612904</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.7346938775510203</v>
       </c>
     </row>
     <row r="29">
@@ -1778,38 +1778,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.7548076923076923</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3118279569892473</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4408602150537635</v>
+        <v>0.4134615384615385</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9032258064516122</v>
+        <v>0.7788461538461539</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="M29" t="n">
-        <v>0.375</v>
+        <v>0.173469387755102</v>
       </c>
     </row>
     <row r="30">
@@ -1825,38 +1825,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.903225806451613</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09677419354838711</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09677419354838711</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="J30" t="n">
-        <v>0.09677419354838711</v>
+        <v>0.375</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07526881720430108</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7954545454545455</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="31">
@@ -1872,224 +1872,226 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9086021505376345</v>
+        <v>0.7884615384615382</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.2884615384615385</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.2884615384615385</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7526881720430109</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.903225806451613</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7903225806451614</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3494623655913979</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.2115384615384616</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9354838709677418</v>
+        <v>0.6442307692307691</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4946236559139786</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0.2596153846153846</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4591836734693877</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.4134615384615385</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.2692307692307689</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="J33" t="n">
-        <v>0.881720430107527</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9784946236559122</v>
+        <v>0.8173076923076924</v>
       </c>
       <c r="L33" t="n">
-        <v>0.989247311827957</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03409090909090909</v>
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.903225806451613</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E34" t="n">
-        <v>0.860215053763441</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.1057692307692307</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1931818181818182</v>
+        <v>0.7755102040816326</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.3655913978494624</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.9567307692307693</v>
       </c>
       <c r="G35" t="n">
-        <v>0.935483870967742</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="H35" t="n">
-        <v>0.935483870967742</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="I35" t="n">
-        <v>0.946236559139785</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9784946236559141</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.75</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="M35" t="n">
-        <v>0.25</v>
+        <v>0.9693877551020408</v>
       </c>
     </row>
     <row r="36">
@@ -2105,39 +2107,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.9278846153846154</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="G36" t="n">
-        <v>0.946236559139785</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="H36" t="n">
-        <v>0.946236559139785</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="I36" t="n">
-        <v>0.967741935483871</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9134615384615382</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.25</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8279569892473119</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.1590909090909091</v>
-      </c>
+        <v>0.7403846153846154</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2152,38 +2152,38 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9784946236559141</v>
+        <v>0.2115384615384616</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9784946236559141</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9623655913978495</v>
+        <v>0.9134615384615385</v>
       </c>
       <c r="H37" t="n">
-        <v>0.956989247311828</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9354838709677411</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0.9711538461538463</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="L37" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="M37" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.03061224489795918</v>
       </c>
     </row>
     <row r="38">
@@ -2199,38 +2199,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9032258064516128</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G38" t="n">
-        <v>0.924731182795699</v>
+        <v>0.701923076923077</v>
       </c>
       <c r="H38" t="n">
-        <v>0.924731182795699</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="I38" t="n">
-        <v>0.956989247311828</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="J38" t="n">
-        <v>0.946236559139785</v>
+        <v>0.7884615384615385</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.8557692307692308</v>
       </c>
       <c r="L38" t="n">
-        <v>0.946236559139785</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06818181818181818</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="39">
@@ -2246,38 +2246,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="E39" t="n">
-        <v>0.860215053763441</v>
+        <v>0.6875</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G39" t="n">
-        <v>0.989247311827957</v>
+        <v>0.8846153846153844</v>
       </c>
       <c r="H39" t="n">
-        <v>0.989247311827957</v>
+        <v>0.884615384615384</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9892473118279567</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8709677419354803</v>
+        <v>0.875</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02150537634408602</v>
+        <v>0.625</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5268817204301076</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="M39" t="n">
-        <v>0.625</v>
+        <v>0.2346938775510204</v>
       </c>
     </row>
     <row r="40">
@@ -2293,38 +2293,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.3125</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7956989247311829</v>
+        <v>0.9807692307692308</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7956989247311829</v>
+        <v>0.9807692307692308</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7849462365591376</v>
+        <v>0.9807692307692308</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.9807692307692308</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.4711538461538462</v>
       </c>
       <c r="L40" t="n">
-        <v>0.924731182795699</v>
+        <v>0.9807692307692308</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.1530612244897959</v>
       </c>
     </row>
     <row r="41">
@@ -2340,38 +2340,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.903225806451613</v>
+        <v>0.3125</v>
       </c>
       <c r="E41" t="n">
-        <v>0.860215053763441</v>
+        <v>0.8942307692307689</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.875</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2258064516129028</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2903225806451588</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="K41" t="n">
-        <v>0.946236559139785</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5483870967741936</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4659090909090909</v>
+        <v>0.06122448979591837</v>
       </c>
     </row>
     <row r="42">
@@ -2387,38 +2387,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="E42" t="n">
-        <v>0.860215053763441</v>
+        <v>0.9471153846153847</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.9567307692307693</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6774193548387097</v>
+        <v>0.971153846153846</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6559139784946237</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="L42" t="n">
-        <v>0.6774193548387097</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="43">
@@ -2434,38 +2434,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.7548076923076923</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0.9423076923076922</v>
       </c>
       <c r="J43" t="n">
-        <v>0.913978494623656</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="K43" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="M43" t="n">
-        <v>0.6818181818181817</v>
+        <v>0.6020408163265306</v>
       </c>
     </row>
     <row r="44">
@@ -2481,38 +2481,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="G44" t="n">
-        <v>0.89247311827957</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="H44" t="n">
-        <v>0.913978494623656</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9032258064516121</v>
+        <v>0.7692307692307685</v>
       </c>
       <c r="J44" t="n">
-        <v>0.956989247311828</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9784946236559139</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4886363636363636</v>
+        <v>0.836734693877551</v>
       </c>
     </row>
     <row r="45">
@@ -2528,38 +2528,38 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G45" t="n">
-        <v>0.860215053763441</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="H45" t="n">
-        <v>0.870967741935484</v>
+        <v>0.7403846153846154</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8461538461538463</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9032258064516121</v>
+        <v>0.7403846153846154</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="L45" t="n">
-        <v>0.956989247311828</v>
+        <v>0.75</v>
       </c>
       <c r="M45" t="n">
-        <v>0.5681818181818162</v>
+        <v>0.6836734693877551</v>
       </c>
     </row>
     <row r="46">
@@ -2575,44 +2575,44 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.02150537634408602</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7849462365591399</v>
+        <v>0.8461538461538463</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7849462365591395</v>
+        <v>0.8461538461538463</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7419354838709696</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.7788461538461539</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.5096153846153844</v>
       </c>
       <c r="L46" t="n">
-        <v>0.89247311827957</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4431818181818182</v>
+        <v>0.4948979591836734</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2622,44 +2622,44 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7365591397849462</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8709677419354791</v>
+        <v>0.4855769230769231</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8817204301075235</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8709677419354837</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6346153846153847</v>
       </c>
       <c r="K47" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.7596153846153847</v>
       </c>
       <c r="L47" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="M47" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.4387755102040816</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2669,44 +2669,44 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.3655913978494624</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.935483870967742</v>
+        <v>0.8317307692307693</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9408602150537635</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9032258064516093</v>
+        <v>0.6826923076923077</v>
       </c>
       <c r="H48" t="n">
-        <v>0.89247311827957</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="I48" t="n">
-        <v>0.913978494623656</v>
+        <v>0.6346153846153847</v>
       </c>
       <c r="J48" t="n">
-        <v>0.924731182795699</v>
+        <v>0.701923076923077</v>
       </c>
       <c r="K48" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="L48" t="n">
-        <v>0.881720430107527</v>
+        <v>0.8173076923076924</v>
       </c>
       <c r="M48" t="n">
-        <v>0.4204545454545455</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2716,44 +2716,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9784946236559141</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9784946236559141</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9623655913978495</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.924731182795699</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9892473118279485</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="L49" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.8557692307692308</v>
       </c>
       <c r="M49" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6530612244897959</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2763,44 +2763,44 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.8173076923076923</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.451923076923077</v>
       </c>
       <c r="G50" t="n">
-        <v>0.881720430107527</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="H50" t="n">
-        <v>0.903225806451613</v>
+        <v>0.8173076923076923</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8817204301075263</v>
+        <v>0.7596153846153847</v>
       </c>
       <c r="J50" t="n">
-        <v>0.89247311827957</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.6634615384615385</v>
       </c>
       <c r="L50" t="n">
-        <v>0.870967741935484</v>
+        <v>0.9134615384615385</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4693877551020408</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2810,44 +2810,44 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G51" t="n">
-        <v>0.978494623655914</v>
+        <v>0.9711538461538458</v>
       </c>
       <c r="H51" t="n">
-        <v>0.978494623655914</v>
+        <v>0.971153846153846</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9784946236559141</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9354838709677383</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1182795698924731</v>
+        <v>0.7307692307692308</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7849462365591359</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.5510204081632653</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2857,38 +2857,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7419354838709686</v>
+        <v>0.7980769230769231</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7419354838709683</v>
+        <v>0.7980769230769231</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7307692307692308</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="K52" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L52" t="n">
-        <v>0.6451612903225807</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="M52" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.4183673469387755</v>
       </c>
     </row>
     <row r="53">
@@ -2904,39 +2904,37 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.8942307692307692</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5698924731182791</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5483870967741934</v>
+        <v>0.875</v>
       </c>
       <c r="J53" t="n">
-        <v>0.6344086021505377</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="L53" t="n">
-        <v>0.6344086021505377</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.7329545454545454</v>
-      </c>
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2951,38 +2949,38 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E54" t="n">
-        <v>0.935483870967742</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9408602150537635</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="G54" t="n">
-        <v>0.913978494623656</v>
+        <v>0.8942307692307692</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8602150537634409</v>
+        <v>0.8942307692307692</v>
       </c>
       <c r="I54" t="n">
-        <v>0.89247311827957</v>
+        <v>0.8846153846153842</v>
       </c>
       <c r="J54" t="n">
-        <v>0.967741935483871</v>
+        <v>0.8846153846153828</v>
       </c>
       <c r="K54" t="n">
-        <v>0.548387096774193</v>
+        <v>0.2884615384615385</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="M54" t="n">
-        <v>0.5</v>
+        <v>0.3163265306122449</v>
       </c>
     </row>
     <row r="55">
@@ -2998,38 +2996,38 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.9759615384615385</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.9807692307692308</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.9423076923076924</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8602150537634408</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="M55" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.3979591836734693</v>
       </c>
     </row>
     <row r="56">
@@ -3045,38 +3043,38 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.8557692307692308</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1397849462365592</v>
+        <v>0.8605769230769231</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8173076923076921</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7956989247311829</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8064516129032259</v>
+        <v>0.8173076923076915</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3333333333333331</v>
+        <v>0.2211538461538461</v>
       </c>
       <c r="L56" t="n">
-        <v>0.7956989247311829</v>
+        <v>0.701923076923077</v>
       </c>
       <c r="M56" t="n">
-        <v>0.75</v>
+        <v>0.6122448979591836</v>
       </c>
     </row>
     <row r="57">
@@ -3092,38 +3090,38 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.7788461538461539</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7419354838709681</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="K57" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.2692307692307693</v>
       </c>
       <c r="L57" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="M57" t="n">
-        <v>0.7329545454545454</v>
+        <v>0.2602040816326531</v>
       </c>
     </row>
     <row r="58">
@@ -3139,38 +3137,38 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4516129032258065</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5483870967741935</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.7307692307692308</v>
       </c>
       <c r="I58" t="n">
-        <v>0.860215053763441</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="J58" t="n">
-        <v>0.860215053763441</v>
+        <v>0.7980769230769231</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7634408602150501</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="L58" t="n">
-        <v>0.913978494623656</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="M58" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.4489795918367346</v>
       </c>
     </row>
     <row r="59">
@@ -3186,38 +3184,38 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="J59" t="n">
-        <v>0.7956989247311829</v>
+        <v>0.951923076923077</v>
       </c>
       <c r="K59" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.06730769230769232</v>
       </c>
       <c r="L59" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.7980769230769231</v>
       </c>
       <c r="M59" t="n">
-        <v>0.5340909090909091</v>
+        <v>0.2602040816326531</v>
       </c>
     </row>
     <row r="60">
@@ -3233,38 +3231,38 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.3125</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7903225806451614</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.75</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.75</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.7403846153846154</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.7307692307692308</v>
       </c>
       <c r="K60" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.2403846153846154</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5376344086021504</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="M60" t="n">
-        <v>0.6022727272727273</v>
+        <v>0.673469387755102</v>
       </c>
     </row>
     <row r="61">
@@ -3280,44 +3278,44 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7634408602150533</v>
+        <v>0.4855769230769231</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7634408602150533</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7526881720430072</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="J61" t="n">
-        <v>0.75268817204301</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="L61" t="n">
-        <v>0.7634408602150539</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="M61" t="n">
-        <v>0.8522727272727273</v>
+        <v>0.7142857142857142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3327,42 +3325,44 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02688172043010753</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.9423076923076922</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.9134615384615347</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6451612903225799</v>
+        <v>0.9134615384615377</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="K62" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="L62" t="n">
-        <v>0.2795698924731183</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.4795918367346939</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3372,44 +3372,44 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.3125</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.5961538461538463</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.701923076923077</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5376344086021506</v>
+        <v>0.875</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5483870967741936</v>
+        <v>0.875</v>
       </c>
       <c r="I63" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.7884615384615385</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.8557692307692308</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.875</v>
       </c>
       <c r="M63" t="n">
-        <v>0.125</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3419,44 +3419,44 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02688172043010753</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.8557692307692308</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6559139784946237</v>
+        <v>0.8557692307692308</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5698924731182796</v>
+        <v>0.7980769230769231</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5698924731182794</v>
+        <v>0.8461538461538463</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1505376344086022</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.8461538461538463</v>
       </c>
       <c r="M64" t="n">
-        <v>0.5795454545454546</v>
+        <v>0.7244897959183673</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3466,44 +3466,44 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.903225806451613</v>
+        <v>0.3125</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9623655913978495</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9408602150537635</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2419354838709677</v>
+        <v>0.7884615384615383</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.7884615384615383</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1075268817204301</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5268817204301076</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L65" t="n">
-        <v>0.02150537634408602</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="M65" t="n">
-        <v>0.5568181818181819</v>
+        <v>0.7142857142857142</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3513,44 +3513,44 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.8317307692307693</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7596153846153841</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7596153846153839</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8557692307692308</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.7596153846153841</v>
       </c>
       <c r="K66" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="L66" t="n">
-        <v>0.1720430107526882</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="M66" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.7448979591836734</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3560,44 +3560,44 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.7548076923076923</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7526881720430105</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H67" t="n">
-        <v>0.7526881720430106</v>
+        <v>0.701923076923077</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5483870967741936</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L67" t="n">
-        <v>0.09677419354838711</v>
+        <v>0.6634615384615385</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.5204081632653061</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3607,44 +3607,44 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.903225806451613</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02688172043010753</v>
+        <v>0.9278846153846154</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5268817204301073</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5591397849462366</v>
+        <v>0.8173076923076912</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1075268817204301</v>
+        <v>0.3942307692307691</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="M68" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.5816326530612245</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3654,44 +3654,44 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E69" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="F69" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.2259615384615385</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4946236559139783</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4946236559139784</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4408602150537635</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2473118279569893</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="L69" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="M69" t="n">
-        <v>0.4545454545454546</v>
+        <v>0.8265306122448981</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3701,38 +3701,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08602150537634409</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.7788461538461539</v>
       </c>
       <c r="H70" t="n">
-        <v>0.7204301075268817</v>
+        <v>0.7788461538461539</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.6826923076923077</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01075268817204301</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.5769230769230753</v>
       </c>
       <c r="M70" t="n">
-        <v>0.693181818181818</v>
+        <v>0.9795918367346939</v>
       </c>
     </row>
     <row r="71">
@@ -3748,39 +3748,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6442307692307686</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.6442307692307693</v>
       </c>
       <c r="J71" t="n">
-        <v>0.6451612903225807</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L71" t="n">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.6477272727272727</v>
-      </c>
+        <v>0.375</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3795,38 +3793,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="E72" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.07211538461538462</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2419354838709677</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2473118279569892</v>
+        <v>0.6826923076923077</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2365591397849462</v>
+        <v>0.701923076923077</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.6634615384615377</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2903225806451613</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.471153846153846</v>
       </c>
       <c r="M72" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.1224489795918367</v>
       </c>
     </row>
     <row r="73">
@@ -3842,38 +3840,38 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.3125</v>
       </c>
       <c r="E73" t="n">
-        <v>0.89247311827957</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5376344086021506</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.6634615384615384</v>
       </c>
       <c r="I73" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.6634615384615381</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5268817204301076</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="K73" t="n">
-        <v>0.07526881720430108</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2473118279569893</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="M73" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.5612244897959191</v>
       </c>
     </row>
     <row r="74">
@@ -3889,38 +3887,38 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.9903846153846154</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8602150537634409</v>
+        <v>0.9807692307692308</v>
       </c>
       <c r="G74" t="n">
-        <v>0.5376344086021506</v>
+        <v>0.2211538461538462</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5376344086021506</v>
+        <v>0.2115384615384616</v>
       </c>
       <c r="I74" t="n">
-        <v>0.5376344086021505</v>
+        <v>0.25</v>
       </c>
       <c r="J74" t="n">
-        <v>0.2795698924731183</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K74" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="L74" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="M74" t="n">
-        <v>0.6647727272727273</v>
+        <v>0.5408163265306131</v>
       </c>
     </row>
     <row r="75">
@@ -3936,38 +3934,38 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.903225806451613</v>
+        <v>0.3125</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1559139784946237</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6021505376344086</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="J75" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="K75" t="n">
-        <v>0.09677419354838711</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1397849462365592</v>
+        <v>0.1442307692307692</v>
       </c>
       <c r="M75" t="n">
-        <v>0.5113636363636364</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="76">
@@ -3983,38 +3981,38 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.6634615384615385</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4086021505376344</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="J76" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2365591397849462</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L76" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="M76" t="n">
-        <v>0.2386363636363636</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="77">
@@ -4030,38 +4028,38 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.903225806451613</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E77" t="n">
-        <v>0.02688172043010753</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4623655913978495</v>
+        <v>0.5336538461538463</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4623655913978495</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.5</v>
       </c>
       <c r="K77" t="n">
-        <v>0.05376344086021506</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.3557692307692308</v>
       </c>
       <c r="M77" t="n">
-        <v>0.7159090909090909</v>
+        <v>0.09183673469387754</v>
       </c>
     </row>
     <row r="78">
@@ -4077,506 +4075,508 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.04301075268817205</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7365591397849462</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8494623655913979</v>
+        <v>0.07211538461538462</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4301075268817203</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4301075268817203</v>
+        <v>0.5</v>
       </c>
       <c r="I78" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.4711538461538462</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1397849462365592</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1075268817204301</v>
+        <v>0.2115384615384616</v>
       </c>
       <c r="M78" t="n">
-        <v>0.9886363636363636</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.5961538461538463</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.451923076923077</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.6346153846153847</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.6442307692307688</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3279569892473119</v>
+        <v>0.5192307692307692</v>
       </c>
       <c r="K79" t="n">
-        <v>0.924731182795699</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L79" t="n">
-        <v>0.4731182795698925</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.6632653061224489</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.9471153846153847</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4408602150537635</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4408602150537635</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.625</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5591397849462366</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="K80" t="n">
-        <v>0.8279569892473119</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.2884615384615385</v>
       </c>
       <c r="M80" t="n">
-        <v>0.2613636363636364</v>
+        <v>0.6224489795918366</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1559139784946237</v>
+        <v>0.1298076923076923</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5053763440860215</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="J81" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3225806451612904</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="L81" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="M81" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.9387755102040816</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.8173076923076923</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.5625</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3978494623655914</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3440860215053764</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.4711538461538462</v>
       </c>
       <c r="K82" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="L82" t="n">
-        <v>0.4408602150537634</v>
+        <v>0.2211538461538462</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2159090909090909</v>
+        <v>0.3877551020408163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3010752688172043</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6774193548387097</v>
+        <v>0.5336538461538463</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5806451612903222</v>
+        <v>0.5480769230769229</v>
       </c>
       <c r="J83" t="n">
-        <v>0.7849462365591391</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="K83" t="n">
-        <v>0.7956989247311829</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9032258064516107</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="M83" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1559139784946237</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1881720430107527</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.6057692307692305</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.6057692307692308</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3279569892473119</v>
+        <v>0.3942307692307687</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2365591397849462</v>
+        <v>0.125</v>
       </c>
       <c r="M84" t="n">
-        <v>0.3977272727272728</v>
+        <v>0.6428571428571428</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6290322580645162</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6451612903225807</v>
+        <v>0.625</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6559139784946237</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="J85" t="n">
-        <v>0.6774193548387094</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3118279569892473</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="M85" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.4948979591836734</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4516129032258065</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3010752688172043</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.5096153846153847</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.5096153846153847</v>
       </c>
       <c r="I86" t="n">
-        <v>0.4623655913978495</v>
+        <v>0.5384615384615385</v>
       </c>
       <c r="J86" t="n">
-        <v>0.5376344086021506</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.125</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5698924731182794</v>
+        <v>0.2692307692307693</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7840909090909091</v>
+        <v>0.2244897959183694</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.06730769230769232</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6559139784946237</v>
+        <v>0.4278846153846154</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="I87" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.4134615384615385</v>
       </c>
       <c r="J87" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="K87" t="n">
-        <v>0.4408602150537632</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L87" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="M87" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.6938775510204082</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Animal6</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="E88" t="n">
-        <v>0.935483870967742</v>
+        <v>0.6875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9408602150537635</v>
+        <v>0.8317307692307693</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.3942307692307693</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5913978494623656</v>
+        <v>0.3942307692307693</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7634408602150536</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.2211538461538462</v>
       </c>
       <c r="K88" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.7419354838709679</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="M88" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.9897959183673468</v>
       </c>
     </row>
     <row r="89">
@@ -4592,39 +4592,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H89" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="I89" t="n">
-        <v>0.02150537634408602</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6559139784946237</v>
+        <v>0.8846153846153847</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05376344086021506</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.8977272727272727</v>
-      </c>
+        <v>0.7307692307692308</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4639,38 +4637,38 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6290322580645162</v>
+        <v>0.4278846153846154</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6344086021505377</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6344086021505377</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="J90" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3763440860215054</v>
+        <v>0.8461538461538458</v>
       </c>
       <c r="L90" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="M90" t="n">
-        <v>0.3522727272727273</v>
+        <v>0.2448979591836735</v>
       </c>
     </row>
     <row r="91">
@@ -4686,38 +4684,38 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4408602150537635</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4516129032258059</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4946236559139784</v>
+        <v>0.394230769230769</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4731182795698925</v>
+        <v>0.5096153846153844</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L91" t="n">
-        <v>0.4623655913978495</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="M91" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.5306122448979592</v>
       </c>
     </row>
     <row r="92">
@@ -4733,38 +4731,38 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5591397849462366</v>
+        <v>0.375</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5591397849462366</v>
+        <v>0.375</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5268817204301076</v>
+        <v>0.375</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="K92" t="n">
-        <v>0.4301075268817205</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L92" t="n">
-        <v>0.6559139784946237</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="M92" t="n">
-        <v>0.6647727272727273</v>
+        <v>0.2040816326530613</v>
       </c>
     </row>
     <row r="93">
@@ -4780,38 +4778,38 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.4134615384615385</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.5625</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="K93" t="n">
-        <v>0.4946236559139783</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1827956989247312</v>
+        <v>0.6826923076923077</v>
       </c>
       <c r="M93" t="n">
-        <v>0.9204545454545455</v>
+        <v>0.2959183673469388</v>
       </c>
     </row>
     <row r="94">
@@ -4827,38 +4825,38 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.3655913978494624</v>
+        <v>0.3125</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4516129032258065</v>
+        <v>0.1490384615384616</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1397849462365592</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2795698924731182</v>
+        <v>0.1923076923076921</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="M94" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.3775510204081632</v>
       </c>
     </row>
     <row r="95">
@@ -4874,37 +4872,554 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>gap_duration_8</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.576923076923077</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.6346153846153847</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.6826923076923077</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.7115384615384616</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.5576923076923077</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.7596153846153846</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.2755102040816326</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>offset_PPI_10</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7548076923076923</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.3557692307692308</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.3557692307692308</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.3269230769230769</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.7403846153846154</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.5096153846153847</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.7551020408163265</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.576923076923077</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.5480769230769229</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.5576923076923077</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.5576923076923077</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.6442307692307685</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7653061224489796</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>offset_PPI_14</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.6057692307692308</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.3653846153846154</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.5192307692307693</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.6057692307692306</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.4519230769230769</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.5961538461538461</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.8061224489795918</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>offset_PPI_16</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.9759615384615385</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9807692307692308</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.7211538461538461</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.4807692307692308</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.7788461538461539</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>offset_PPI_18</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.7548076923076923</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.2884615384615385</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.2788461538461539</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.3653846153846154</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.7980769230769231</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8775510204081632</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>offset_PPI_20</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.6057692307692308</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.3653846153846154</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.4711538461538461</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.4711538461538461</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.4326923076923077</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.3265306122448979</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>offset_PPI_4</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.576923076923077</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.4134615384615385</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.4134615384615385</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4519230769230769</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.7959183673469388</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>offset_PPI_50</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.576923076923077</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.5769230769230764</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.5769230769230763</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.5192307692307687</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6442307692307665</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.6346153846153847</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.6428571428571428</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>offset_PPI_6</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.4134615384615385</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.2692307692307693</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.5769230769230764</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.9081632653061226</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>offset_PPI_8</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.6057692307692308</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.3942307692307692</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.3653846153846154</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.2355769230769231</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.2403846153846154</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.2019230769230769</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.1634615384615385</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.4134615384615385</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.1634615384615385</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.8163265306122448</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Animal6</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>tone_in_noise</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>0.903225806451613</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.02150537634408602</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.02150537634408602</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.02150537634408602</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.4086021505376344</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="M95" t="n">
+      <c r="D106" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1730769230769231</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.09134615384615385</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.08653846153846154</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.0576923076923077</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.02884615384615385</v>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Analyzer Results/RESULTS_TT_MERGED_DATE_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,7 +538,6 @@
       <c r="L2" t="n">
         <v>0.3173076923076923</v>
       </c>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -588,9 +582,6 @@
       <c r="L3" t="n">
         <v>0.3653846153846154</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.1326530612244898</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -635,9 +626,6 @@
       <c r="L4" t="n">
         <v>0.4134615384615385</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.04081632653061224</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -682,9 +670,6 @@
       <c r="L5" t="n">
         <v>0.3942307692307693</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.01020408163265306</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -729,9 +714,6 @@
       <c r="L6" t="n">
         <v>0.1346153846153846</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.0510204081632653</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -776,9 +758,6 @@
       <c r="L7" t="n">
         <v>0.2788461538461539</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.02040816326530612</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -823,9 +802,6 @@
       <c r="L8" t="n">
         <v>0.08653846153846154</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.1020408163265306</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -870,9 +846,6 @@
       <c r="L9" t="n">
         <v>0.06730769230769232</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.5714285714285714</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -917,9 +890,6 @@
       <c r="L10" t="n">
         <v>0.1057692307692308</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.9489795918367346</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,9 +934,6 @@
       <c r="L11" t="n">
         <v>0.03846153846153846</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.846938775510204</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1011,9 +978,6 @@
       <c r="L12" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.9591836734693877</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1058,9 +1022,6 @@
       <c r="L13" t="n">
         <v>0.1730769230769231</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.8877551020408162</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1105,9 +1066,6 @@
       <c r="L14" t="n">
         <v>0.6057692307692308</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.2857142857142857</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1152,9 +1110,6 @@
       <c r="L15" t="n">
         <v>0.3365384615384616</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.1428571428571428</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1199,9 +1154,6 @@
       <c r="L16" t="n">
         <v>0.0576923076923077</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.9285714285714285</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1246,9 +1198,6 @@
       <c r="L17" t="n">
         <v>0.009615384615384616</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.8979591836734693</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1293,9 +1242,6 @@
       <c r="L18" t="n">
         <v>0.1826923076923077</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.9285714285714285</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1340,7 +1286,6 @@
       <c r="L19" t="n">
         <v>0.6730769230769231</v>
       </c>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1385,9 +1330,6 @@
       <c r="L20" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.1938775510204082</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1432,9 +1374,6 @@
       <c r="L21" t="n">
         <v>0.4423076923076923</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.1122448979591837</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1479,9 +1418,6 @@
       <c r="L22" t="n">
         <v>0.3461538461538461</v>
       </c>
-      <c r="M22" t="n">
-        <v>0.163265306122449</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1526,9 +1462,6 @@
       <c r="L23" t="n">
         <v>0.5384615384615384</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1573,9 +1506,6 @@
       <c r="L24" t="n">
         <v>0.7884615384615379</v>
       </c>
-      <c r="M24" t="n">
-        <v>0.8673469387755084</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1620,9 +1550,6 @@
       <c r="L25" t="n">
         <v>0.2403846153846154</v>
       </c>
-      <c r="M25" t="n">
-        <v>0.4081632653061233</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1667,9 +1594,6 @@
       <c r="L26" t="n">
         <v>0.4903846153846154</v>
       </c>
-      <c r="M26" t="n">
-        <v>0.3061224489795918</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1714,9 +1638,6 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.336734693877551</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1761,9 +1682,6 @@
       <c r="L28" t="n">
         <v>0.2980769230769231</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.7346938775510203</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1808,9 +1726,6 @@
       <c r="L29" t="n">
         <v>0.5480769230769231</v>
       </c>
-      <c r="M29" t="n">
-        <v>0.173469387755102</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1855,9 +1770,6 @@
       <c r="L30" t="n">
         <v>0.5673076923076923</v>
       </c>
-      <c r="M30" t="n">
-        <v>0.7857142857142857</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1902,9 +1814,6 @@
       <c r="L31" t="n">
         <v>0.4519230769230769</v>
       </c>
-      <c r="M31" t="n">
-        <v>0.3571428571428572</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1949,9 +1858,6 @@
       <c r="L32" t="n">
         <v>0.2596153846153846</v>
       </c>
-      <c r="M32" t="n">
-        <v>0.4591836734693877</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1996,9 +1902,6 @@
       <c r="L33" t="n">
         <v>0.4230769230769231</v>
       </c>
-      <c r="M33" t="n">
-        <v>0.3469387755102041</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2043,9 +1946,6 @@
       <c r="L34" t="n">
         <v>0.04807692307692308</v>
       </c>
-      <c r="M34" t="n">
-        <v>0.7755102040816326</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2090,9 +1990,6 @@
       <c r="L35" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="M35" t="n">
-        <v>0.9693877551020408</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2137,7 +2034,6 @@
       <c r="L36" t="n">
         <v>0.7403846153846154</v>
       </c>
-      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2182,9 +2078,6 @@
       <c r="L37" t="n">
         <v>0.9903846153846154</v>
       </c>
-      <c r="M37" t="n">
-        <v>0.03061224489795918</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2229,9 +2122,6 @@
       <c r="L38" t="n">
         <v>0.9326923076923077</v>
       </c>
-      <c r="M38" t="n">
-        <v>0.1836734693877551</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2276,9 +2166,6 @@
       <c r="L39" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="M39" t="n">
-        <v>0.2346938775510204</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2323,9 +2210,6 @@
       <c r="L40" t="n">
         <v>0.9807692307692308</v>
       </c>
-      <c r="M40" t="n">
-        <v>0.1530612244897959</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2370,9 +2254,6 @@
       <c r="L41" t="n">
         <v>0.951923076923077</v>
       </c>
-      <c r="M41" t="n">
-        <v>0.06122448979591837</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2417,9 +2298,6 @@
       <c r="L42" t="n">
         <v>0.9711538461538461</v>
       </c>
-      <c r="M42" t="n">
-        <v>0.07142857142857142</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2464,9 +2342,6 @@
       <c r="L43" t="n">
         <v>0.6153846153846154</v>
       </c>
-      <c r="M43" t="n">
-        <v>0.6020408163265306</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2511,9 +2386,6 @@
       <c r="L44" t="n">
         <v>0.9423076923076923</v>
       </c>
-      <c r="M44" t="n">
-        <v>0.836734693877551</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2558,9 +2430,6 @@
       <c r="L45" t="n">
         <v>0.75</v>
       </c>
-      <c r="M45" t="n">
-        <v>0.6836734693877551</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2605,9 +2474,6 @@
       <c r="L46" t="n">
         <v>0.8846153846153846</v>
       </c>
-      <c r="M46" t="n">
-        <v>0.4948979591836734</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2652,9 +2518,6 @@
       <c r="L47" t="n">
         <v>0.6923076923076923</v>
       </c>
-      <c r="M47" t="n">
-        <v>0.4387755102040816</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2699,9 +2562,6 @@
       <c r="L48" t="n">
         <v>0.8173076923076924</v>
       </c>
-      <c r="M48" t="n">
-        <v>0.8571428571428571</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2746,9 +2606,6 @@
       <c r="L49" t="n">
         <v>0.8557692307692308</v>
       </c>
-      <c r="M49" t="n">
-        <v>0.6530612244897959</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2793,9 +2650,6 @@
       <c r="L50" t="n">
         <v>0.9134615384615385</v>
       </c>
-      <c r="M50" t="n">
-        <v>0.4693877551020408</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2840,9 +2694,6 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
-      <c r="M51" t="n">
-        <v>0.5510204081632653</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2887,9 +2738,6 @@
       <c r="L52" t="n">
         <v>0.9038461538461539</v>
       </c>
-      <c r="M52" t="n">
-        <v>0.4183673469387755</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2934,7 +2782,6 @@
       <c r="L53" t="n">
         <v>0.8076923076923077</v>
       </c>
-      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2979,9 +2826,6 @@
       <c r="L54" t="n">
         <v>0.8365384615384616</v>
       </c>
-      <c r="M54" t="n">
-        <v>0.3163265306122449</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3026,9 +2870,6 @@
       <c r="L55" t="n">
         <v>0.8942307692307693</v>
       </c>
-      <c r="M55" t="n">
-        <v>0.3979591836734693</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3073,9 +2914,6 @@
       <c r="L56" t="n">
         <v>0.701923076923077</v>
       </c>
-      <c r="M56" t="n">
-        <v>0.6122448979591836</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3120,9 +2958,6 @@
       <c r="L57" t="n">
         <v>0.826923076923077</v>
       </c>
-      <c r="M57" t="n">
-        <v>0.2602040816326531</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3167,9 +3002,6 @@
       <c r="L58" t="n">
         <v>0.5865384615384616</v>
       </c>
-      <c r="M58" t="n">
-        <v>0.4489795918367346</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3214,9 +3046,6 @@
       <c r="L59" t="n">
         <v>0.7980769230769231</v>
       </c>
-      <c r="M59" t="n">
-        <v>0.2602040816326531</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3261,9 +3090,6 @@
       <c r="L60" t="n">
         <v>0.7115384615384616</v>
       </c>
-      <c r="M60" t="n">
-        <v>0.673469387755102</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3308,9 +3134,6 @@
       <c r="L61" t="n">
         <v>0.5288461538461539</v>
       </c>
-      <c r="M61" t="n">
-        <v>0.7142857142857142</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3355,9 +3178,6 @@
       <c r="L62" t="n">
         <v>0.9615384615384616</v>
       </c>
-      <c r="M62" t="n">
-        <v>0.4795918367346939</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3402,9 +3222,6 @@
       <c r="L63" t="n">
         <v>0.875</v>
       </c>
-      <c r="M63" t="n">
-        <v>0.5102040816326531</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3449,9 +3266,6 @@
       <c r="L64" t="n">
         <v>0.8461538461538463</v>
       </c>
-      <c r="M64" t="n">
-        <v>0.7244897959183673</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3496,9 +3310,6 @@
       <c r="L65" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="M65" t="n">
-        <v>0.7142857142857142</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3543,9 +3354,6 @@
       <c r="L66" t="n">
         <v>0.7211538461538461</v>
       </c>
-      <c r="M66" t="n">
-        <v>0.7448979591836734</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3590,9 +3398,6 @@
       <c r="L67" t="n">
         <v>0.6634615384615385</v>
       </c>
-      <c r="M67" t="n">
-        <v>0.5204081632653061</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3637,9 +3442,6 @@
       <c r="L68" t="n">
         <v>0.8653846153846154</v>
       </c>
-      <c r="M68" t="n">
-        <v>0.5816326530612245</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3684,9 +3486,6 @@
       <c r="L69" t="n">
         <v>0.6538461538461539</v>
       </c>
-      <c r="M69" t="n">
-        <v>0.8265306122448981</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3731,9 +3530,6 @@
       <c r="L70" t="n">
         <v>0.5769230769230753</v>
       </c>
-      <c r="M70" t="n">
-        <v>0.9795918367346939</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3778,7 +3574,6 @@
       <c r="L71" t="n">
         <v>0.375</v>
       </c>
-      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3823,9 +3618,6 @@
       <c r="L72" t="n">
         <v>0.471153846153846</v>
       </c>
-      <c r="M72" t="n">
-        <v>0.1224489795918367</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3870,9 +3662,6 @@
       <c r="L73" t="n">
         <v>0.4038461538461539</v>
       </c>
-      <c r="M73" t="n">
-        <v>0.5612244897959191</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3917,9 +3706,6 @@
       <c r="L74" t="n">
         <v>0.01923076923076923</v>
       </c>
-      <c r="M74" t="n">
-        <v>0.5408163265306131</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3964,9 +3750,6 @@
       <c r="L75" t="n">
         <v>0.1442307692307692</v>
       </c>
-      <c r="M75" t="n">
-        <v>0.08163265306122448</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4011,9 +3794,6 @@
       <c r="L76" t="n">
         <v>0.3076923076923077</v>
       </c>
-      <c r="M76" t="n">
-        <v>0.2142857142857143</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4058,9 +3838,6 @@
       <c r="L77" t="n">
         <v>0.3557692307692308</v>
       </c>
-      <c r="M77" t="n">
-        <v>0.09183673469387754</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4105,9 +3882,6 @@
       <c r="L78" t="n">
         <v>0.2115384615384616</v>
       </c>
-      <c r="M78" t="n">
-        <v>0.4285714285714285</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4152,9 +3926,6 @@
       <c r="L79" t="n">
         <v>0.25</v>
       </c>
-      <c r="M79" t="n">
-        <v>0.6632653061224489</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4199,9 +3970,6 @@
       <c r="L80" t="n">
         <v>0.2884615384615385</v>
       </c>
-      <c r="M80" t="n">
-        <v>0.6224489795918366</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4246,9 +4014,6 @@
       <c r="L81" t="n">
         <v>0.3269230769230769</v>
       </c>
-      <c r="M81" t="n">
-        <v>0.9387755102040816</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4293,9 +4058,6 @@
       <c r="L82" t="n">
         <v>0.2211538461538462</v>
       </c>
-      <c r="M82" t="n">
-        <v>0.3877551020408163</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4340,9 +4102,6 @@
       <c r="L83" t="n">
         <v>0.5192307692307693</v>
       </c>
-      <c r="M83" t="n">
-        <v>0.3673469387755102</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4387,9 +4146,6 @@
       <c r="L84" t="n">
         <v>0.125</v>
       </c>
-      <c r="M84" t="n">
-        <v>0.6428571428571428</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4434,9 +4190,6 @@
       <c r="L85" t="n">
         <v>0.09615384615384616</v>
       </c>
-      <c r="M85" t="n">
-        <v>0.4948979591836734</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4481,9 +4234,6 @@
       <c r="L86" t="n">
         <v>0.2692307692307693</v>
       </c>
-      <c r="M86" t="n">
-        <v>0.2244897959183694</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4528,9 +4278,6 @@
       <c r="L87" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="M87" t="n">
-        <v>0.6938775510204082</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4575,9 +4322,6 @@
       <c r="L88" t="n">
         <v>0.07692307692307693</v>
       </c>
-      <c r="M88" t="n">
-        <v>0.9897959183673468</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4622,7 +4366,6 @@
       <c r="L89" t="n">
         <v>0.7307692307692308</v>
       </c>
-      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4667,9 +4410,6 @@
       <c r="L90" t="n">
         <v>0.4807692307692308</v>
       </c>
-      <c r="M90" t="n">
-        <v>0.2448979591836735</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4714,9 +4454,6 @@
       <c r="L91" t="n">
         <v>0.5576923076923077</v>
       </c>
-      <c r="M91" t="n">
-        <v>0.5306122448979592</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4761,9 +4498,6 @@
       <c r="L92" t="n">
         <v>0.4326923076923077</v>
       </c>
-      <c r="M92" t="n">
-        <v>0.2040816326530613</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4808,9 +4542,6 @@
       <c r="L93" t="n">
         <v>0.6826923076923077</v>
       </c>
-      <c r="M93" t="n">
-        <v>0.2959183673469388</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4855,9 +4586,6 @@
       <c r="L94" t="n">
         <v>0.2019230769230769</v>
       </c>
-      <c r="M94" t="n">
-        <v>0.3775510204081632</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4902,9 +4630,6 @@
       <c r="L95" t="n">
         <v>0.7596153846153846</v>
       </c>
-      <c r="M95" t="n">
-        <v>0.2755102040816326</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4949,9 +4674,6 @@
       <c r="L96" t="n">
         <v>0.5096153846153847</v>
       </c>
-      <c r="M96" t="n">
-        <v>0.7551020408163265</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4996,9 +4718,6 @@
       <c r="L97" t="n">
         <v>0.6442307692307685</v>
       </c>
-      <c r="M97" t="n">
-        <v>0.7653061224489796</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5043,9 +4762,6 @@
       <c r="L98" t="n">
         <v>0.5961538461538461</v>
       </c>
-      <c r="M98" t="n">
-        <v>0.8061224489795918</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5090,9 +4806,6 @@
       <c r="L99" t="n">
         <v>0.7788461538461539</v>
       </c>
-      <c r="M99" t="n">
-        <v>0.5918367346938775</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5137,9 +4850,6 @@
       <c r="L100" t="n">
         <v>0.5</v>
       </c>
-      <c r="M100" t="n">
-        <v>0.8775510204081632</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5184,9 +4894,6 @@
       <c r="L101" t="n">
         <v>0.625</v>
       </c>
-      <c r="M101" t="n">
-        <v>0.3265306122448979</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5231,9 +4938,6 @@
       <c r="L102" t="n">
         <v>0.4615384615384616</v>
       </c>
-      <c r="M102" t="n">
-        <v>0.7959183673469388</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5278,9 +4982,6 @@
       <c r="L103" t="n">
         <v>0.6346153846153847</v>
       </c>
-      <c r="M103" t="n">
-        <v>0.6428571428571428</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5325,9 +5026,6 @@
       <c r="L104" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="M104" t="n">
-        <v>0.9081632653061226</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5372,9 +5070,6 @@
       <c r="L105" t="n">
         <v>0.1634615384615385</v>
       </c>
-      <c r="M105" t="n">
-        <v>0.8163265306122448</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5418,9 +5113,6 @@
       </c>
       <c r="L106" t="n">
         <v>0.02884615384615385</v>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_DATE_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_DATE_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,31 +512,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2355769230769231</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1826923076923077</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2788461538461539</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="K2" t="n">
-        <v>0.875</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3173076923076923</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="3">
@@ -556,31 +556,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8557692307692308</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6394230769230769</v>
+        <v>0.7903225806451614</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1634615384615385</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1634615384615385</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2115384615384616</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.870967741935484</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.4086021505376344</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.913978494623656</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2115384615384616</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2211538461538462</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1826923076923077</v>
+        <v>0.2473118279569893</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2692307692307693</v>
+        <v>0.4623655913978495</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7849462365591399</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4134615384615385</v>
+        <v>0.5591397849462366</v>
       </c>
     </row>
     <row r="5">
@@ -644,31 +644,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="J5" t="n">
-        <v>0.25</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.8602150537634408</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3942307692307693</v>
+        <v>0.3763440860215038</v>
       </c>
     </row>
     <row r="6">
@@ -684,35 +684,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09134615384615385</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09615384615384592</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.4946236559139786</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6826923076923077</v>
+        <v>0.9892473118279556</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="7">
@@ -728,35 +728,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6394230769230769</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2403846153846154</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1057692307692308</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1057692307692308</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1153846153846154</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2788461538461539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -772,35 +772,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.05376344086021506</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.05376344086021506</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06730769230769232</v>
+        <v>0.05376344086021506</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.05376344086021506</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>0.8817204301075255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08653846153846154</v>
+        <v>0.1505376344086022</v>
       </c>
     </row>
     <row r="9">
@@ -816,35 +816,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9423076923076923</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.9086021505376345</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02884615384615385</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02884615384615385</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8365384615384616</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06730769230769232</v>
+        <v>0.04301075268817205</v>
       </c>
     </row>
     <row r="10">
@@ -860,35 +860,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.08064516129032259</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.09677419354838711</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.6344086021505377</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1057692307692308</v>
+        <v>0.2150537634408602</v>
       </c>
     </row>
     <row r="11">
@@ -904,35 +904,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6875</v>
+        <v>0.7903225806451614</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8028846153846154</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="H11" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="J11" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.3118279569892473</v>
       </c>
     </row>
     <row r="12">
@@ -948,35 +948,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8701923076923077</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6875</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06730769230769225</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="13">
@@ -992,35 +992,35 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8701923076923077</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.2473118279569893</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06730769230769232</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06730769230769232</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.1397849462365592</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2473118279569889</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9326923076923077</v>
+        <v>0.913978494623656</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.4301075268817189</v>
       </c>
     </row>
     <row r="14">
@@ -1036,35 +1036,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2211538461538462</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3557692307692308</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.08602150537634409</v>
       </c>
     </row>
     <row r="15">
@@ -1080,41 +1080,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6634615384615385</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F15" t="n">
-        <v>0.25</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="G15" t="n">
-        <v>0.125</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="H15" t="n">
-        <v>0.125</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1442307692307692</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9423076923076924</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3365384615384616</v>
+        <v>0.2043010752688172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1124,41 +1124,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.3763440860215045</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7884615384615382</v>
+        <v>0.6451612903225805</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.6129032258064516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1168,41 +1168,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.05376344086021506</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8461538461538448</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4134615384615385</v>
+        <v>0.7849462365591399</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7211538461538461</v>
+        <v>0.4623655913978495</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Animal1</t>
+          <t>Animal10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1212,35 +1212,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8774038461538461</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2259615384615385</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08653846153846154</v>
+        <v>0.3225806451612904</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08653846153846154</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9711538461538461</v>
+        <v>0.5591397849462365</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1826923076923077</v>
+        <v>0.4516129032258065</v>
       </c>
     </row>
     <row r="19">
@@ -1256,35 +1256,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6394230769230769</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4134615384615385</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4519230769230769</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4903846153846154</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6346153846153842</v>
+        <v>0.5698924731182795</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="20">
@@ -1300,35 +1300,35 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6394230769230769</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8028846153846154</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1442307692307692</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1442307692307692</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4903846153846154</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.3978494623655914</v>
       </c>
     </row>
     <row r="21">
@@ -1344,35 +1344,35 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F21" t="n">
-        <v>0.451923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G21" t="n">
-        <v>0.317307692307692</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="H21" t="n">
-        <v>0.317307692307692</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3557692307692308</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5865384615384616</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.7204301075268817</v>
       </c>
     </row>
     <row r="22">
@@ -1388,35 +1388,35 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1490384615384616</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.08064516129032259</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.1182795698924731</v>
       </c>
     </row>
     <row r="23">
@@ -1432,35 +1432,35 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E23" t="n">
-        <v>0.875</v>
+        <v>0.7903225806451614</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8605769230769231</v>
+        <v>0.7849462365591399</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3494623655913979</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3173076923076923</v>
+        <v>0.3225806451612904</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5961538461538461</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.01075268817204301</v>
       </c>
     </row>
     <row r="24">
@@ -1476,35 +1476,35 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F24" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4519230769230769</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4519230769230769</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5096153846153847</v>
+        <v>0.4301075268817203</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.4301075268817205</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7884615384615379</v>
+        <v>0.6021505376344086</v>
       </c>
     </row>
     <row r="25">
@@ -1520,35 +1520,35 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F25" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="I25" t="n">
-        <v>0.125</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1826923076923077</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="K25" t="n">
-        <v>0.701923076923077</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="26">
@@ -1564,35 +1564,35 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5961538461538463</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8317307692307693</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2884615384615385</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4903846153846154</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="27">
@@ -1608,35 +1608,35 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.3125</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7548076923076923</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.3225806451612904</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3365384615384616</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.5053763440860215</v>
       </c>
     </row>
     <row r="28">
@@ -1652,35 +1652,35 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.7903225806451614</v>
       </c>
       <c r="F28" t="n">
-        <v>0.576923076923077</v>
+        <v>0.7849462365591399</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1442307692307692</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1634615384615385</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.5376344086021506</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.3225806451612904</v>
       </c>
     </row>
     <row r="29">
@@ -1696,35 +1696,35 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7548076923076923</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3365384615384616</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3365384615384616</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4134615384615385</v>
+        <v>0.4408602150537635</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7788461538461539</v>
+        <v>0.9032258064516122</v>
       </c>
       <c r="L29" t="n">
-        <v>0.5480769230769231</v>
+        <v>0.5913978494623656</v>
       </c>
     </row>
     <row r="30">
@@ -1740,35 +1740,35 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.826923076923077</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.09677419354838711</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.09677419354838711</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="J30" t="n">
-        <v>0.375</v>
+        <v>0.09677419354838711</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5673076923076923</v>
+        <v>0.07526881720430108</v>
       </c>
     </row>
     <row r="31">
@@ -1784,211 +1784,211 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1057692307692308</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7884615384615382</v>
+        <v>0.9086021505376345</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2788461538461539</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2884615384615385</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2884615384615385</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.7526881720430109</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4519230769230769</v>
+        <v>0.3655913978494624</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7903225806451614</v>
       </c>
       <c r="F32" t="n">
-        <v>0.576923076923077</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1826923076923077</v>
+        <v>0.3494623655913979</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2115384615384616</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6442307692307691</v>
+        <v>0.9354838709677418</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.4946236559139786</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5384615384615385</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4134615384615385</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2692307692307689</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2788461538461539</v>
+        <v>0.881720430107527</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8173076923076924</v>
+        <v>0.9784946236559122</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.989247311827957</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.860215053763441</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1057692307692307</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1057692307692308</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1634615384615385</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.8172043010752689</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Animal10</t>
+          <t>Animal15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9567307692307693</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.9784946236559141</v>
       </c>
       <c r="K35" t="n">
-        <v>0.75</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3846153846153846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2004,35 +2004,35 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9278846153846154</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G36" t="n">
-        <v>0.951923076923077</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="H36" t="n">
-        <v>0.951923076923077</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="I36" t="n">
-        <v>0.951923076923077</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9134615384615382</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="K36" t="n">
-        <v>0.25</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7403846153846154</v>
+        <v>0.8279569892473119</v>
       </c>
     </row>
     <row r="37">
@@ -2048,35 +2048,35 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2115384615384616</v>
+        <v>0.9784946236559141</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7163461538461539</v>
+        <v>0.9784946236559141</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9134615384615385</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9326923076923077</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9326923076923077</v>
+        <v>0.9354838709677411</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9711538461538463</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.951923076923077</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="38">
@@ -2092,35 +2092,35 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.9032258064516128</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="G38" t="n">
-        <v>0.701923076923077</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="J38" t="n">
-        <v>0.7884615384615385</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8557692307692308</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9326923076923077</v>
+        <v>0.946236559139785</v>
       </c>
     </row>
     <row r="39">
@@ -2136,35 +2136,35 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6875</v>
+        <v>0.860215053763441</v>
       </c>
       <c r="F39" t="n">
-        <v>0.576923076923077</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8846153846153844</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="H39" t="n">
-        <v>0.884615384615384</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.9892473118279567</v>
       </c>
       <c r="J39" t="n">
-        <v>0.875</v>
+        <v>0.8709677419354803</v>
       </c>
       <c r="K39" t="n">
-        <v>0.625</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.5268817204301076</v>
       </c>
     </row>
     <row r="40">
@@ -2180,35 +2180,35 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.3125</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="F40" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.7956989247311829</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.7956989247311829</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.7849462365591376</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4711538461538462</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.924731182795699</v>
       </c>
     </row>
     <row r="41">
@@ -2224,35 +2224,35 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.3125</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8942307692307689</v>
+        <v>0.860215053763441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.875</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.2258064516129028</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9326923076923077</v>
+        <v>0.2903225806451588</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5288461538461539</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L41" t="n">
-        <v>0.951923076923077</v>
+        <v>0.5483870967741936</v>
       </c>
     </row>
     <row r="42">
@@ -2268,35 +2268,35 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.3125</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9471153846153847</v>
+        <v>0.860215053763441</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9567307692307693</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="I42" t="n">
-        <v>0.971153846153846</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.6559139784946237</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9711538461538461</v>
+        <v>0.6774193548387097</v>
       </c>
     </row>
     <row r="43">
@@ -2312,35 +2312,35 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7548076923076923</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9326923076923077</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9423076923076922</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.913978494623656</v>
       </c>
       <c r="K43" t="n">
-        <v>0.1442307692307692</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L43" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.8064516129032259</v>
       </c>
     </row>
     <row r="44">
@@ -2356,35 +2356,35 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1634615384615385</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.913978494623656</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7692307692307685</v>
+        <v>0.9032258064516121</v>
       </c>
       <c r="J44" t="n">
-        <v>0.826923076923077</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.9784946236559139</v>
       </c>
     </row>
     <row r="45">
@@ -2400,35 +2400,35 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F45" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.860215053763441</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7403846153846154</v>
+        <v>0.870967741935484</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8461538461538463</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7403846153846154</v>
+        <v>0.9032258064516121</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L45" t="n">
-        <v>0.75</v>
+        <v>0.956989247311828</v>
       </c>
     </row>
     <row r="46">
@@ -2444,41 +2444,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8461538461538463</v>
+        <v>0.7849462365591399</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8461538461538463</v>
+        <v>0.7849462365591395</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.7419354838709696</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7788461538461539</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5096153846153844</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L46" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.89247311827957</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2488,41 +2488,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="F47" t="n">
-        <v>0.576923076923077</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4855769230769231</v>
+        <v>0.8709677419354791</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.8817204301075235</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5288461538461539</v>
+        <v>0.8709677419354837</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6346153846153847</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7596153846153847</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L47" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2532,41 +2532,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8317307692307693</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2596153846153846</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6826923076923077</v>
+        <v>0.9032258064516093</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6346153846153847</v>
+        <v>0.913978494623656</v>
       </c>
       <c r="J48" t="n">
-        <v>0.701923076923077</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="L48" t="n">
-        <v>0.8173076923076924</v>
+        <v>0.881720430107527</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2576,41 +2576,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.9784946236559141</v>
       </c>
       <c r="F49" t="n">
-        <v>0.576923076923077</v>
+        <v>0.9784946236559141</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9892473118279485</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8557692307692308</v>
+        <v>0.7741935483870969</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2620,41 +2620,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8173076923076923</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7211538461538461</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F50" t="n">
-        <v>0.451923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.881720430107527</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8173076923076923</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7596153846153847</v>
+        <v>0.8817204301075263</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6634615384615385</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9134615384615385</v>
+        <v>0.870967741935484</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2664,41 +2664,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F51" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9711538461538458</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="H51" t="n">
-        <v>0.971153846153846</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9784946236559141</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.9354838709677383</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7307692307692308</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0.7849462365591359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Animal15</t>
+          <t>Animal2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2708,35 +2708,35 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7980769230769231</v>
+        <v>0.7419354838709686</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7980769230769231</v>
+        <v>0.7419354838709683</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7307692307692308</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.6451612903225807</v>
       </c>
     </row>
     <row r="53">
@@ -2752,35 +2752,35 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8942307692307692</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G53" t="n">
-        <v>0.826923076923077</v>
+        <v>0.5698924731182791</v>
       </c>
       <c r="H53" t="n">
-        <v>0.826923076923077</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="I53" t="n">
-        <v>0.875</v>
+        <v>0.5483870967741934</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.6344086021505377</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2115384615384615</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.6344086021505377</v>
       </c>
     </row>
     <row r="54">
@@ -2796,35 +2796,35 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1826923076923077</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3365384615384616</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8942307692307692</v>
+        <v>0.913978494623656</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8942307692307692</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8846153846153842</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8846153846153828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2884615384615385</v>
+        <v>0.548387096774193</v>
       </c>
       <c r="L54" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.9354838709677419</v>
       </c>
     </row>
     <row r="55">
@@ -2840,35 +2840,35 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9759615384615385</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9423076923076924</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.8602150537634408</v>
       </c>
     </row>
     <row r="56">
@@ -2884,35 +2884,35 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8557692307692308</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8605769230769231</v>
+        <v>0.1397849462365592</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8173076923076921</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="I56" t="n">
-        <v>0.826923076923077</v>
+        <v>0.7956989247311829</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8173076923076915</v>
+        <v>0.8064516129032259</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2211538461538461</v>
+        <v>0.3333333333333331</v>
       </c>
       <c r="L56" t="n">
-        <v>0.701923076923077</v>
+        <v>0.7956989247311829</v>
       </c>
     </row>
     <row r="57">
@@ -2928,35 +2928,35 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F57" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7788461538461539</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.7419354838709681</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2692307692307693</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L57" t="n">
-        <v>0.826923076923077</v>
+        <v>0.7526881720430108</v>
       </c>
     </row>
     <row r="58">
@@ -2972,35 +2972,35 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7307692307692308</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.860215053763441</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7980769230769231</v>
+        <v>0.860215053763441</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.7634408602150501</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5865384615384616</v>
+        <v>0.913978494623656</v>
       </c>
     </row>
     <row r="59">
@@ -3016,35 +3016,35 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F59" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="J59" t="n">
-        <v>0.951923076923077</v>
+        <v>0.7956989247311829</v>
       </c>
       <c r="K59" t="n">
-        <v>0.06730769230769232</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L59" t="n">
-        <v>0.7980769230769231</v>
+        <v>0.8494623655913979</v>
       </c>
     </row>
     <row r="60">
@@ -3060,35 +3060,35 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.3125</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.7903225806451614</v>
       </c>
       <c r="F60" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G60" t="n">
-        <v>0.75</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="H60" t="n">
-        <v>0.75</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7403846153846154</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7307692307692308</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="L60" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.5376344086021504</v>
       </c>
     </row>
     <row r="61">
@@ -3104,41 +3104,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4855769230769231</v>
+        <v>0.7634408602150533</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4903846153846154</v>
+        <v>0.7634408602150533</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.7526881720430072</v>
       </c>
       <c r="J61" t="n">
-        <v>0.576923076923077</v>
+        <v>0.75268817204301</v>
       </c>
       <c r="K61" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="L61" t="n">
-        <v>0.5288461538461539</v>
+        <v>0.7634408602150539</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3148,41 +3148,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9423076923076922</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9134615384615347</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9134615384615377</v>
+        <v>0.6451612903225799</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="K62" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.2795698924731183</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3192,41 +3192,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.3125</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5961538461538463</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="F63" t="n">
-        <v>0.701923076923077</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="G63" t="n">
-        <v>0.875</v>
+        <v>0.5376344086021506</v>
       </c>
       <c r="H63" t="n">
-        <v>0.875</v>
+        <v>0.5483870967741936</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7884615384615385</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8557692307692308</v>
+        <v>0.5913978494623656</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3365384615384616</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L63" t="n">
-        <v>0.875</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3236,41 +3236,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1298076923076923</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1201923076923077</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8557692307692308</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8557692307692308</v>
+        <v>0.6559139784946237</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7980769230769231</v>
+        <v>0.5698924731182796</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8461538461538463</v>
+        <v>0.5698924731182794</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2788461538461539</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="L64" t="n">
-        <v>0.8461538461538463</v>
+        <v>0.3010752688172043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3280,41 +3280,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.3125</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="F65" t="n">
-        <v>0.576923076923077</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7884615384615383</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7884615384615383</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7211538461538461</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5673076923076923</v>
+        <v>0.5268817204301076</v>
       </c>
       <c r="L65" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.02150537634408602</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3324,41 +3324,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8317307692307693</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7163461538461539</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7596153846153841</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7596153846153839</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8557692307692308</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7596153846153841</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="K66" t="n">
-        <v>0.3557692307692308</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="L66" t="n">
-        <v>0.7211538461538461</v>
+        <v>0.1720430107526882</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3368,41 +3368,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7548076923076923</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7526881720430105</v>
       </c>
       <c r="H67" t="n">
-        <v>0.701923076923077</v>
+        <v>0.7526881720430106</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5483870967741936</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3461538461538461</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.6634615384615385</v>
+        <v>0.09677419354838711</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3412,41 +3412,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9278846153846154</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9230769230769231</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.5268817204301073</v>
       </c>
       <c r="I68" t="n">
-        <v>0.8173076923076912</v>
+        <v>0.5591397849462366</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3942307692307691</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="L68" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3456,41 +3456,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2259615384615385</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5865384615384616</v>
+        <v>0.4946236559139783</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5865384615384616</v>
+        <v>0.4946236559139784</v>
       </c>
       <c r="I69" t="n">
-        <v>0.5865384615384616</v>
+        <v>0.4408602150537635</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.2473118279569893</v>
       </c>
       <c r="L69" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.2688172043010753</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Animal2</t>
+          <t>Animal4</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3500,35 +3500,35 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_12</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7788461538461539</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="H70" t="n">
-        <v>0.7788461538461539</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7211538461538461</v>
+        <v>0.7741935483870969</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6826923076923077</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="L70" t="n">
-        <v>0.5769230769230753</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="71">
@@ -3544,35 +3544,35 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E71" t="n">
-        <v>0.009615384615384616</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.009615384615384616</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.6442307692307686</v>
+        <v>0.5913978494623656</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="I71" t="n">
-        <v>0.6442307692307693</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5480769230769231</v>
+        <v>0.6451612903225807</v>
       </c>
       <c r="K71" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L71" t="n">
-        <v>0.375</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="72">
@@ -3588,35 +3588,35 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E72" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07211538461538462</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="G72" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6826923076923077</v>
+        <v>0.2473118279569892</v>
       </c>
       <c r="I72" t="n">
-        <v>0.701923076923077</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="J72" t="n">
-        <v>0.6634615384615377</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K72" t="n">
-        <v>0.1057692307692308</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="L72" t="n">
-        <v>0.471153846153846</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="73">
@@ -3632,35 +3632,35 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.3125</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.89247311827957</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1057692307692308</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="G73" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.5376344086021506</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6634615384615384</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="I73" t="n">
-        <v>0.6634615384615381</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5865384615384616</v>
+        <v>0.5268817204301076</v>
       </c>
       <c r="K73" t="n">
-        <v>0.1346153846153846</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="L73" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.2473118279569893</v>
       </c>
     </row>
     <row r="74">
@@ -3676,35 +3676,35 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9903846153846154</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9807692307692308</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2211538461538462</v>
+        <v>0.5376344086021506</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2115384615384616</v>
+        <v>0.5376344086021506</v>
       </c>
       <c r="I74" t="n">
-        <v>0.25</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.2795698924731183</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5384615384615385</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L74" t="n">
-        <v>0.01923076923076923</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="75">
@@ -3720,35 +3720,35 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.3125</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="F75" t="n">
-        <v>0.576923076923077</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7211538461538461</v>
+        <v>0.6021505376344086</v>
       </c>
       <c r="I75" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.5913978494623656</v>
       </c>
       <c r="J75" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="K75" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.09677419354838711</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1442307692307692</v>
+        <v>0.1397849462365592</v>
       </c>
     </row>
     <row r="76">
@@ -3764,35 +3764,35 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3942307692307692</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.576923076923077</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6634615384615385</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="J76" t="n">
-        <v>0.5961538461538461</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="K76" t="n">
-        <v>0.08653846153846154</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="L76" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3440860215053764</v>
       </c>
     </row>
     <row r="77">
@@ -3808,35 +3808,35 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5336538461538463</v>
+        <v>0.4623655913978495</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5288461538461539</v>
+        <v>0.4623655913978495</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5673076923076923</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.05376344086021506</v>
       </c>
       <c r="L77" t="n">
-        <v>0.3557692307692308</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="78">
@@ -3852,475 +3852,475 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>offset_PPI_10</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="E78" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07211538461538462</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>0.4301075268817203</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5</v>
+        <v>0.4301075268817203</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4711538461538462</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1826923076923077</v>
+        <v>0.1397849462365592</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2115384615384616</v>
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>offset_PPI_12</t>
+          <t>ASR_control</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5961538461538463</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F79" t="n">
-        <v>0.451923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6346153846153847</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6442307692307688</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.2688172043010753</v>
       </c>
       <c r="J79" t="n">
-        <v>0.5192307692307692</v>
+        <v>0.3279569892473119</v>
       </c>
       <c r="K79" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="L79" t="n">
-        <v>0.25</v>
+        <v>0.4731182795698925</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>offset_PPI_14</t>
+          <t>gap_depth</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9471153846153847</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5961538461538461</v>
+        <v>0.4408602150537635</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5961538461538461</v>
+        <v>0.4408602150537635</v>
       </c>
       <c r="I80" t="n">
-        <v>0.625</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="J80" t="n">
-        <v>0.5288461538461539</v>
+        <v>0.5591397849462366</v>
       </c>
       <c r="K80" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2884615384615385</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>offset_PPI_16</t>
+          <t>gap_duration_10</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1298076923076923</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1201923076923077</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3173076923076923</v>
+        <v>0.3225806451612904</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>offset_PPI_18</t>
+          <t>gap_duration_20</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8173076923076923</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5625</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5480769230769231</v>
+        <v>0.3978494623655914</v>
       </c>
       <c r="I82" t="n">
-        <v>0.576923076923077</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4711538461538462</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2211538461538462</v>
+        <v>0.4408602150537634</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>offset_PPI_20</t>
+          <t>gap_duration_4</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="F83" t="n">
-        <v>0.576923076923077</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5336538461538463</v>
+        <v>0.6774193548387097</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5384615384615385</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5480769230769229</v>
+        <v>0.5806451612903222</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5673076923076923</v>
+        <v>0.7849462365591391</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.7956989247311829</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.9032258064516107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>offset_PPI_4</t>
+          <t>gap_duration_50</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6057692307692305</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6057692307692308</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5961538461538461</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3942307692307687</v>
+        <v>0.3279569892473119</v>
       </c>
       <c r="K84" t="n">
-        <v>0.009615384615384616</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="L84" t="n">
-        <v>0.125</v>
+        <v>0.2365591397849462</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>offset_PPI_50</t>
+          <t>gap_duration_8</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F85" t="n">
-        <v>0.08653846153846154</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6290322580645162</v>
       </c>
       <c r="H85" t="n">
-        <v>0.625</v>
+        <v>0.6451612903225807</v>
       </c>
       <c r="I85" t="n">
-        <v>0.6057692307692307</v>
+        <v>0.6559139784946237</v>
       </c>
       <c r="J85" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.6774193548387094</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.5806451612903226</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>offset_PPI_6</t>
+          <t>offset_PPI_10</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5096153846153847</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5096153846153847</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5384615384615385</v>
+        <v>0.4623655913978495</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.5376344086021506</v>
       </c>
       <c r="K86" t="n">
-        <v>0.125</v>
+        <v>0.5913978494623656</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2692307692307693</v>
+        <v>0.5698924731182794</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>offset_PPI_8</t>
+          <t>offset_PPI_14</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E87" t="n">
-        <v>0.06730769230769232</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F87" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4278846153846154</v>
+        <v>0.6559139784946237</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4326923076923077</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I87" t="n">
-        <v>0.4134615384615385</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3173076923076923</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.4408602150537632</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Animal4</t>
+          <t>Animal6</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>tone_in_noise</t>
+          <t>offset_PPI_16</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6875</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8317307692307693</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3942307692307693</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3942307692307693</v>
+        <v>0.5913978494623656</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.7634408602150536</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2211538461538462</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="K88" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.7419354838709679</v>
       </c>
     </row>
     <row r="89">
@@ -4336,35 +4336,35 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ASR_control</t>
+          <t>offset_PPI_18</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F89" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="I89" t="n">
-        <v>0.4903846153846154</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K89" t="n">
-        <v>0.8846153846153847</v>
+        <v>0.6559139784946237</v>
       </c>
       <c r="L89" t="n">
-        <v>0.7307692307692308</v>
+        <v>0.05376344086021506</v>
       </c>
     </row>
     <row r="90">
@@ -4380,35 +4380,35 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>gap_depth</t>
+          <t>offset_PPI_20</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F90" t="n">
-        <v>0.576923076923077</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4278846153846154</v>
+        <v>0.6290322580645162</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.6344086021505377</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.6344086021505377</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="K90" t="n">
-        <v>0.8461538461538458</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.6666666666666665</v>
       </c>
     </row>
     <row r="91">
@@ -4424,35 +4424,35 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>gap_duration_10</t>
+          <t>offset_PPI_4</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.7355769230769231</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4408602150537635</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4516129032258059</v>
       </c>
       <c r="I91" t="n">
-        <v>0.394230769230769</v>
+        <v>0.4946236559139784</v>
       </c>
       <c r="J91" t="n">
-        <v>0.5096153846153844</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5480769230769231</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.4623655913978495</v>
       </c>
     </row>
     <row r="92">
@@ -4468,35 +4468,35 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>gap_duration_20</t>
+          <t>offset_PPI_50</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E92" t="n">
-        <v>0.576923076923077</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.375</v>
+        <v>0.5591397849462366</v>
       </c>
       <c r="H92" t="n">
-        <v>0.375</v>
+        <v>0.5591397849462366</v>
       </c>
       <c r="I92" t="n">
-        <v>0.375</v>
+        <v>0.5268817204301076</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4326923076923077</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="K92" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4301075268817205</v>
       </c>
       <c r="L92" t="n">
-        <v>0.4326923076923077</v>
+        <v>0.6559139784946237</v>
       </c>
     </row>
     <row r="93">
@@ -4512,35 +4512,35 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>gap_duration_4</t>
+          <t>offset_PPI_6</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4134615384615385</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5625</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5673076923076923</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="J93" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="K93" t="n">
-        <v>0.4326923076923077</v>
+        <v>0.4946236559139783</v>
       </c>
       <c r="L93" t="n">
-        <v>0.6826923076923077</v>
+        <v>0.1827956989247312</v>
       </c>
     </row>
     <row r="94">
@@ -4556,35 +4556,35 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>gap_duration_50</t>
+          <t>offset_PPI_8</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.3125</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1490384615384616</v>
+        <v>0.4516129032258065</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3365384615384616</v>
+        <v>0.1397849462365592</v>
       </c>
       <c r="K94" t="n">
-        <v>0.1923076923076921</v>
+        <v>0.2795698924731182</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="95">
@@ -4600,519 +4600,35 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>gap_duration_8</t>
+          <t>tone_in_noise</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.3125</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3942307692307692</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F95" t="n">
-        <v>0.576923076923077</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G95" t="n">
-        <v>0.625</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="H95" t="n">
-        <v>0.6346153846153847</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="I95" t="n">
-        <v>0.6826923076923077</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="J95" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="L95" t="n">
-        <v>0.7596153846153846</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>offset_PPI_10</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.3942307692307692</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.7548076923076923</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.3557692307692308</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.3557692307692308</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.3269230769230769</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.7403846153846154</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.5096153846153847</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.3942307692307692</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.576923076923077</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.5480769230769229</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.5576923076923077</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.5576923076923077</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.6442307692307685</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>offset_PPI_14</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0.6057692307692308</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.3942307692307692</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.3653846153846154</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.5192307692307693</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.5192307692307693</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6057692307692306</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.4519230769230769</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.5961538461538461</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>offset_PPI_16</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9759615384615385</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.9807692307692308</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.7211538461538461</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.4807692307692308</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.7788461538461539</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>offset_PPI_18</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.7548076923076923</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.2884615384615385</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.2788461538461539</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.3653846153846154</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.7980769230769231</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>offset_PPI_20</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0.6057692307692308</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.3942307692307692</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.3653846153846154</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.4711538461538461</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.4711538461538461</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.4326923076923077</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5384615384615385</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.826923076923077</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>offset_PPI_4</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.3942307692307692</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.576923076923077</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.4134615384615385</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.4134615384615385</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.4519230769230769</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>offset_PPI_50</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.3942307692307692</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.576923076923077</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.5769230769230764</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.5769230769230763</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.5192307692307687</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.6442307692307665</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.6346153846153847</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>offset_PPI_6</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0.5384615384615385</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.3942307692307692</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.4134615384615385</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.2692307692307693</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.5769230769230764</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>offset_PPI_8</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0.6057692307692308</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.3942307692307692</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.3653846153846154</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.2355769230769231</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.2403846153846154</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.2019230769230769</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.1634615384615385</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.4134615384615385</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.1634615384615385</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Animal6</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.09615384615384616</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.1730769230769231</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.09134615384615385</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.08653846153846154</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.0576923076923077</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
   </sheetData>
